--- a/wenjian/新资管案例.xlsx
+++ b/wenjian/新资管案例.xlsx
@@ -17,7 +17,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">模板管理!$B$5:$N$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -227,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="601">
   <si>
     <t>新资管系统</t>
   </si>
@@ -2735,6 +2734,377 @@
   <si>
     <t>新建不成功，返回查询页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品-修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、查询选择修改的记录
+4、点击【修改】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出修改页面，可编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，查询该修改产品，产品要素已被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品-修改（审批流程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【提交】
+7、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，待经办事项显示审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品-修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【取消】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，返回查询页面；查询该产品，产品要素未被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【提交】
+7、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品-016</t>
+  </si>
+  <si>
+    <t>预期收益型产品-017</t>
+  </si>
+  <si>
+    <t>预期收益型产品-018</t>
+  </si>
+  <si>
+    <t>预期收益型产品-019</t>
+  </si>
+  <si>
+    <t>预期收益型产品-020</t>
+  </si>
+  <si>
+    <t>预期收益型产品-021</t>
+  </si>
+  <si>
+    <t>预期收益型产品-022</t>
+  </si>
+  <si>
+    <t>预期收益型产品-023</t>
+  </si>
+  <si>
+    <t>预期收益型产品-024</t>
+  </si>
+  <si>
+    <t>预期收益型产品-025</t>
+  </si>
+  <si>
+    <t>预期收益型产品-026</t>
+  </si>
+  <si>
+    <t>预期收益型产品-027</t>
+  </si>
+  <si>
+    <t>预期收益型产品-028</t>
+  </si>
+  <si>
+    <t>预期收益型产品-删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、查询要删除的记录并选择
+4、点击【删除】
+5、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除，查询该产品，有效状态为删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、查询要删除的记录并选择
+4、点击【删除】
+5、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除不成功，查询该产品，有效状态为有效，未删除；待经办事项显示审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品-发行状态管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、选择单条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【保存】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行状态修改成功，查询该产品发行发行状态改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、选择单条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【取消】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行状态修改失败，发行状态不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、批量选择多条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【保存】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行状态修改成功，所选记录发行状态均被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品-029</t>
+  </si>
+  <si>
+    <t>预期收益型产品-030</t>
+  </si>
+  <si>
+    <t>净值型产品-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易管理/净值型产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品-002</t>
+  </si>
+  <si>
+    <t>净值型产品-003</t>
+  </si>
+  <si>
+    <t>净值型产品-004</t>
+  </si>
+  <si>
+    <t>净值型产品-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、不输入查询条件
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t>净值型产品-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入投资处室
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入投资组合（组合管理中维护的信息，可复选）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入产品简称（只显示净值型产品，可复选）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入投资类型(个人客户专属、私人银行客户专属)
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入投资类型(个人客户专属、
+私人银行客户专属、机构客户专属、
+银行同业专属)
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入到期日或区间
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入募集开始日或区间
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入募集结束日或区间
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入发行状态（初始、不发行、确认发行、发行成功、发行失败;可复选）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入有效状态（有效、删除）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入发行方式（封闭式、开放式）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、输入所有查询条件
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、输入查询条件
+4、点击【查询】
+5、双击产品记录查看详细信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入分红方式（现金分红、份额结转、混合模式）
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合分红方式的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、只输入报备状态（报备成功、报备失败）
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合报备状态的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品-006</t>
+  </si>
+  <si>
+    <t>净值型产品-007</t>
+  </si>
+  <si>
+    <t>净值型产品-008</t>
+  </si>
+  <si>
+    <t>净值型产品-009</t>
+  </si>
+  <si>
+    <t>净值型产品-010</t>
+  </si>
+  <si>
+    <t>净值型产品-011</t>
+  </si>
+  <si>
+    <t>净值型产品-012</t>
+  </si>
+  <si>
+    <t>净值型产品-013</t>
+  </si>
+  <si>
+    <t>净值型产品-014</t>
+  </si>
+  <si>
+    <t>净值型产品-015</t>
+  </si>
+  <si>
+    <t>净值型产品-016</t>
+  </si>
+  <si>
+    <t>净值型产品-017</t>
   </si>
 </sst>
 </file>
@@ -3992,11 +4362,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="A2:A51"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D7"/>
@@ -4009,6 +4374,11 @@
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7259,13 +7629,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N113"/>
+  <dimension ref="B2:N117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8139,7 +8509,9 @@
       <c r="K29" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
     </row>
@@ -8153,7 +8525,9 @@
       <c r="D30" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12" t="s">
         <v>506</v>
       </c>
@@ -8165,20 +8539,28 @@
         <v>511</v>
       </c>
       <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>536</v>
+      </c>
       <c r="C31" s="11" t="s">
         <v>463</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12" t="s">
         <v>506</v>
       </c>
@@ -8190,20 +8572,28 @@
         <v>512</v>
       </c>
       <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
     </row>
     <row r="32" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>537</v>
+      </c>
       <c r="C32" s="11" t="s">
         <v>463</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F32" s="12" t="s">
         <v>506</v>
       </c>
@@ -8215,20 +8605,28 @@
         <v>516</v>
       </c>
       <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
     </row>
     <row r="33" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>538</v>
+      </c>
       <c r="C33" s="11" t="s">
         <v>463</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="12" t="s">
         <v>506</v>
       </c>
@@ -8240,20 +8638,28 @@
         <v>517</v>
       </c>
       <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+      <c r="K33" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
     </row>
     <row r="34" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>539</v>
+      </c>
       <c r="C34" s="11" t="s">
         <v>463</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="12" t="s">
         <v>506</v>
       </c>
@@ -8265,20 +8671,28 @@
         <v>524</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
     </row>
     <row r="35" spans="2:14" ht="108" x14ac:dyDescent="0.15">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>540</v>
+      </c>
       <c r="C35" s="11" t="s">
         <v>463</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F35" s="12" t="s">
         <v>518</v>
       </c>
@@ -8290,20 +8704,28 @@
         <v>520</v>
       </c>
       <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
+      <c r="K35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
     <row r="36" spans="2:14" ht="108" x14ac:dyDescent="0.15">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>541</v>
+      </c>
       <c r="C36" s="11" t="s">
         <v>463</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="12" t="s">
         <v>518</v>
       </c>
@@ -8315,428 +8737,917 @@
         <v>522</v>
       </c>
       <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+    <row r="37" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B37" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>525</v>
+      </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
+      <c r="K37" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+    <row r="38" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B38" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>525</v>
+      </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>527</v>
+      </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
+      <c r="K38" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+    <row r="39" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B39" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>529</v>
+      </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>528</v>
+      </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
+      <c r="K39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
+    <row r="40" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B40" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>529</v>
+      </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>531</v>
+      </c>
       <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
+      <c r="K40" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
+    <row r="41" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B41" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>532</v>
+      </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>534</v>
+      </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
+      <c r="K41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
+    <row r="42" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B42" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>549</v>
+      </c>
       <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>551</v>
+      </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="K42" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
+    <row r="43" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B43" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>549</v>
+      </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="H43" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>553</v>
+      </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="K43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
+    <row r="44" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>554</v>
+      </c>
       <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>556</v>
+      </c>
       <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="K44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+    <row r="45" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>558</v>
+      </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
+      <c r="K45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+    <row r="46" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="K46" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+    </row>
+    <row r="48" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+      <c r="B48" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>466</v>
+      </c>
       <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+    <row r="49" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B49" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
+      <c r="K49" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+    <row r="50" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B50" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>467</v>
+      </c>
       <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
+      <c r="K50" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
+    <row r="51" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="H51" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>468</v>
+      </c>
       <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="K51" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+    <row r="52" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>469</v>
+      </c>
       <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="K52" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+    <row r="53" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
+    <row r="54" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B54" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>471</v>
+      </c>
       <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
+      <c r="K54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+    <row r="55" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B55" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>472</v>
+      </c>
       <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
+      <c r="K55" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+    <row r="56" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B56" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>473</v>
+      </c>
       <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
+      <c r="K56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+    <row r="57" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B57" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>474</v>
+      </c>
       <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
+      <c r="K57" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
+    <row r="58" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B58" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>588</v>
+      </c>
       <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
+      <c r="K58" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="20"/>
+    <row r="59" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>475</v>
+      </c>
       <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
+      <c r="K59" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="20"/>
+    <row r="60" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B60" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>476</v>
+      </c>
       <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
+      <c r="K60" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
+    <row r="61" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B61" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>477</v>
+      </c>
       <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
+      <c r="K61" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
+    <row r="62" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="20"/>
+      <c r="H62" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>586</v>
+      </c>
       <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
+      <c r="K62" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
+    <row r="63" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B63" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>478</v>
+      </c>
       <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
+      <c r="K63" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
+    <row r="64" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B64" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>571</v>
+      </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="H64" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>509</v>
+      </c>
       <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+      <c r="K64" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
     </row>
@@ -8763,7 +9674,7 @@
       <c r="F66" s="12"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
@@ -8806,10 +9717,10 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="11"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="22"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
@@ -8821,10 +9732,10 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="22"/>
+      <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
@@ -8836,10 +9747,10 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="22"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
@@ -8854,7 +9765,7 @@
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
-      <c r="J72" s="22"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
@@ -8896,13 +9807,14 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="N75" s="21"/>
+      <c r="N75" s="11"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="11"/>
@@ -8913,10 +9825,11 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
+      <c r="J76" s="22"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-      <c r="N76" s="21"/>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="11"/>
@@ -8927,10 +9840,11 @@
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
+      <c r="J77" s="22"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-      <c r="N77" s="21"/>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="11"/>
@@ -8941,6 +9855,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
@@ -8952,7 +9867,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="11"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="K79" s="11"/>
@@ -8966,14 +9881,13 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
-      <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
+      <c r="N80" s="21"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="11"/>
@@ -8984,11 +9898,10 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
+      <c r="N81" s="21"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="11"/>
@@ -8999,11 +9912,10 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
+      <c r="N82" s="21"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="11"/>
@@ -9014,7 +9926,6 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
-      <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
@@ -9111,49 +10022,49 @@
       <c r="N89" s="11"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="13"/>
@@ -9162,11 +10073,11 @@
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
     </row>
@@ -9470,6 +10381,58 @@
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
     </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H117" s="13"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:N2"/>
@@ -9479,17 +10442,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C92">
       <formula1>"交易管理/产品申报登记,交易管理/产品信息导入,交易管理/预期收益型产品,交易管理/净值型产品,交易管理/结构性产品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K89">
-      <formula1>"未测试,通过,不通过,不适用"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D92">
       <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E92">
       <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K93">
+      <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wenjian/新资管案例.xlsx
+++ b/wenjian/新资管案例.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="模板管理" sheetId="2" r:id="rId2"/>
     <sheet name="信息管理" sheetId="5" r:id="rId3"/>
-    <sheet name="属性" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="存续期管理" sheetId="6" r:id="rId4"/>
+    <sheet name="属性" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="字典" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">模板管理!$B$5:$N$87</definedName>
@@ -225,8 +227,108 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最低层次模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在下拉框中选择测试类型，如无合适选项，可选择“其他测试”，并在备注说明测试类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">标题：
+简要说明该测试用例的测试重点
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>测试数据：
+根据实际使用数据进行填写，如测试时使用的账号、角色等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">预期结果:
+说明执行测试操作后的具体预期结果，如显示或输出内容、系统保持数据、生成报表等
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际结果：
+说明实际执行测试操作后的实际结果，如显示的具体内容，输出的具体数据、系统保存的实际数据等</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="742">
   <si>
     <t>新资管系统</t>
   </si>
@@ -2633,10 +2735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示产品详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1、登录新资管系统
 2、进入【产品管理】→【交易管理】→【预期收益型产品】
 3、点击【新建】
@@ -2705,10 +2803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品新建成功，查询该新建产品，显示正常，和新建时一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、登录新资管系统
 2、进入【产品管理】→【交易管理】→【预期收益型产品】
 3、点击【新建】
@@ -2752,10 +2846,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改成功，查询该修改产品，产品要素已被修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期收益型产品-修改（审批流程）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2823,9 +2913,6 @@
     <t>预期收益型产品-022</t>
   </si>
   <si>
-    <t>预期收益型产品-023</t>
-  </si>
-  <si>
     <t>预期收益型产品-024</t>
   </si>
   <si>
@@ -3105,6 +3192,702 @@
   </si>
   <si>
     <t>净值型产品-017</t>
+  </si>
+  <si>
+    <t>显示产品详细信息，信息不可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示产品详细信息，不可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品-查看产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品-新建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、点击【新建】
+4、输入不存在的产品代码
+5、点击【快捷录入】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、点击【新建】
+4、先输产品代码，点击【快捷录入】
+5、再选择其他模板代码
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、点击【新建】
+4、先选择模板代码
+5、再输入产品代码，点击【快捷录入】
+</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+6、点击【取消】</t>
+  </si>
+  <si>
+    <t>净值型产品-新建（审批流程）</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+6、点击【提交】
+7、复核岗审批通过</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+6、点击【提交】
+7、复核岗审批不通过</t>
+  </si>
+  <si>
+    <t>净值型产品-修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、查询选择修改的记录
+4、点击【修改】
+</t>
+  </si>
+  <si>
+    <t>净值型产品-修改（审批流程）</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【提交】
+7、复核岗审批通过</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【提交】
+7、复核岗审批不通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【取消】
+</t>
+  </si>
+  <si>
+    <t>净值型产品-删除</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、查询要删除的记录并选择
+4、点击【删除】
+5、复核岗审批通过</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、查询要删除的记录并选择
+4、点击【删除】
+5、复核岗审批不通过</t>
+  </si>
+  <si>
+    <t>净值型产品-发行状态管理</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、选择单条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【保存】</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、选择单条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【取消】</t>
+  </si>
+  <si>
+    <t>净值型产品-018</t>
+  </si>
+  <si>
+    <t>净值型产品-019</t>
+  </si>
+  <si>
+    <t>净值型产品-020</t>
+  </si>
+  <si>
+    <t>净值型产品-021</t>
+  </si>
+  <si>
+    <t>净值型产品-022</t>
+  </si>
+  <si>
+    <t>净值型产品-023</t>
+  </si>
+  <si>
+    <t>净值型产品-024</t>
+  </si>
+  <si>
+    <t>净值型产品-025</t>
+  </si>
+  <si>
+    <t>净值型产品-026</t>
+  </si>
+  <si>
+    <t>净值型产品-027</t>
+  </si>
+  <si>
+    <t>净值型产品-028</t>
+  </si>
+  <si>
+    <t>净值型产品-029</t>
+  </si>
+  <si>
+    <t>净值型产品-030</t>
+  </si>
+  <si>
+    <t>净值型产品-031</t>
+  </si>
+  <si>
+    <t>净值型产品-032</t>
+  </si>
+  <si>
+    <t>净值型产品-033</t>
+  </si>
+  <si>
+    <t>净值型产品-034</t>
+  </si>
+  <si>
+    <t>修改成功，查询该修改产品，产品要素已被修改，一览界面显示产品最新修改时间，最新修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品新建成功，查询该新建产品，显示正常，和新建时一致，发行状态为“确认发行”，一览界面显示产品最新修改时间，最新修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，查询该修改产品，产品要素已被修改，一览界面显示产品最新修改时间，最新修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品新建成功，查询该新建产品，显示正常，和新建时一致，发行状态为“确认发行”，一览界面显示产品最新修改时间，最新修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、产品信息详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有付息计划TAB页，有分红计划TAB页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品-新建（审批流程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品费用TAB页（64页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【净值型产品】
+3、批量选择多条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【保存】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易管理/结构性产品</t>
+  </si>
+  <si>
+    <t>结构性产品-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性产品-002</t>
+  </si>
+  <si>
+    <t>结构性产品-003</t>
+  </si>
+  <si>
+    <t>结构性产品-查询</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、产品信息详情页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、不输入查询条件
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入投资处室
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入投资组合（组合管理中维护的信息，可复选）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入投资类型(个人客户专属、私人银行客户专属)
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入投资类型(个人客户专属、
+私人银行客户专属、机构客户专属、
+银行同业专属)
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入到期日或区间
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入募集开始日或区间
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入募集结束日或区间
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入报备状态（报备成功、报备失败）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入发行状态（初始、不发行、确认发行、发行成功、发行失败;可复选）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入有效状态（有效、删除）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入发行方式（封闭式、开放式）
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、输入所有查询条件
+4、点击【查询】
+</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、输入查询条件
+4、点击【查询】
+5、双击产品记录查看详细信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、点击【新建】
+4、输入不存在的产品代码
+5、点击【快捷录入】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、点击【新建】
+4、先输产品代码，点击【快捷录入】
+5、再选择其他模板代码
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、点击【新建】
+4、先选择模板代码
+5、再输入产品代码，点击【快捷录入】
+</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+6、点击【取消】</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+6、点击【提交】
+7、复核岗审批通过</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、点击【新建】
+4、输入正确的产品代码
+5、点击【快捷录入】
+6、点击【提交】
+7、复核岗审批不通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、查询选择修改的记录
+4、点击【修改】
+</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【提交】
+7、复核岗审批通过</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【提交】
+7、复核岗审批不通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、查询选择修改的记录
+4、点击【修改】
+5、修改要素信息
+6、点击【取消】
+</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、查询要删除的记录并选择
+4、点击【删除】
+5、复核岗审批通过</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、查询要删除的记录并选择
+4、点击【删除】
+5、复核岗审批不通过</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、选择单条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【保存】</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、选择单条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【取消】</t>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、批量选择多条记录
+4、点击【发行状态管理】
+5、修改发行状态
+6、点击【保存】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【结构性产品】
+3、只输入产品简称（只显示结构性产品，可复选）
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询页面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性产品-查看产品信息</t>
+  </si>
+  <si>
+    <t>结构性产品-新建</t>
+  </si>
+  <si>
+    <t>结构性产品-新建（审批流程）</t>
+  </si>
+  <si>
+    <t>结构性产品-修改</t>
+  </si>
+  <si>
+    <t>结构性产品-修改（审批流程）</t>
+  </si>
+  <si>
+    <t>结构性产品-删除</t>
+  </si>
+  <si>
+    <t>结构性产品-发行状态管理</t>
+  </si>
+  <si>
+    <t>结构性产品-004</t>
+  </si>
+  <si>
+    <t>结构性产品-005</t>
+  </si>
+  <si>
+    <t>结构性产品-006</t>
+  </si>
+  <si>
+    <t>结构性产品-007</t>
+  </si>
+  <si>
+    <t>结构性产品-008</t>
+  </si>
+  <si>
+    <t>结构性产品-009</t>
+  </si>
+  <si>
+    <t>结构性产品-010</t>
+  </si>
+  <si>
+    <t>结构性产品-011</t>
+  </si>
+  <si>
+    <t>结构性产品-012</t>
+  </si>
+  <si>
+    <t>结构性产品-013</t>
+  </si>
+  <si>
+    <t>结构性产品-014</t>
+  </si>
+  <si>
+    <t>结构性产品-015</t>
+  </si>
+  <si>
+    <t>结构性产品-017</t>
+  </si>
+  <si>
+    <t>结构性产品-018</t>
+  </si>
+  <si>
+    <t>结构性产品-019</t>
+  </si>
+  <si>
+    <t>结构性产品-020</t>
+  </si>
+  <si>
+    <t>结构性产品-021</t>
+  </si>
+  <si>
+    <t>结构性产品-022</t>
+  </si>
+  <si>
+    <t>结构性产品-023</t>
+  </si>
+  <si>
+    <t>结构性产品-024</t>
+  </si>
+  <si>
+    <t>结构性产品-025</t>
+  </si>
+  <si>
+    <t>结构性产品-026</t>
+  </si>
+  <si>
+    <t>结构性产品-027</t>
+  </si>
+  <si>
+    <t>结构性产品-028</t>
+  </si>
+  <si>
+    <t>结构性产品-029</t>
+  </si>
+  <si>
+    <t>结构性产品-030</t>
+  </si>
+  <si>
+    <t>结构性产品-031</t>
+  </si>
+  <si>
+    <t>结构性产品-032</t>
+  </si>
+  <si>
+    <t>结构性产品-033</t>
+  </si>
+  <si>
+    <t>结构性产品-034</t>
+  </si>
+  <si>
+    <t>没有付息计划TAB页，有开放计划TAB页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存续期管理/预期收益型产品交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存续期管理/净值型产品交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存续期管理/结构性产品交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存续期管理/净值型分红方案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存续期管理/产品费用交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存续期管理/预期收益型产品交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品交易-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品交易-002</t>
+  </si>
+  <si>
+    <t>预期收益型产品交易-003</t>
+  </si>
+  <si>
+    <t>预期收益型产品交易-004</t>
+  </si>
+  <si>
+    <t>预期收益型产品交易-005</t>
+  </si>
+  <si>
+    <t>预期收益型产品交易-006</t>
+  </si>
+  <si>
+    <t>预期收益型产品交易-007</t>
+  </si>
+  <si>
+    <t>预期收益型产品交易-008</t>
+  </si>
+  <si>
+    <t>预期收益型产品交易-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【存续期管理】→【预期收益型产品交易】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+3、进入【产品管理】→【存续期管理】→【预期收益型产品交易】
+</t>
   </si>
 </sst>
 </file>
@@ -3761,7 +4544,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4362,6 +5145,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="A2:A51"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D7"/>
@@ -4378,7 +5162,6 @@
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4394,10 +5177,10 @@
   <dimension ref="B2:N111"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L86" sqref="L86"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7629,13 +8412,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N117"/>
+  <dimension ref="B2:N114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7647,7 +8430,7 @@
     <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" style="10" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
@@ -8503,7 +9286,7 @@
         <v>508</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>509</v>
+        <v>597</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
@@ -8533,10 +9316,10 @@
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11" t="s">
@@ -8550,7 +9333,7 @@
     </row>
     <row r="31" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>463</v>
@@ -8566,10 +9349,10 @@
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11" t="s">
@@ -8583,7 +9366,7 @@
     </row>
     <row r="32" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B32" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>463</v>
@@ -8599,10 +9382,10 @@
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11" t="s">
@@ -8616,7 +9399,7 @@
     </row>
     <row r="33" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>463</v>
@@ -8632,10 +9415,10 @@
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11" t="s">
@@ -8649,7 +9432,7 @@
     </row>
     <row r="34" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B34" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>463</v>
@@ -8665,10 +9448,10 @@
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="s">
@@ -8680,9 +9463,9 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>463</v>
@@ -8694,14 +9477,14 @@
         <v>48</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
@@ -8715,7 +9498,7 @@
     </row>
     <row r="36" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>463</v>
@@ -8727,14 +9510,14 @@
         <v>48</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11" t="s">
@@ -8748,7 +9531,7 @@
     </row>
     <row r="37" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B37" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>463</v>
@@ -8760,14 +9543,14 @@
         <v>48</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
@@ -8779,9 +9562,9 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B38" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>463</v>
@@ -8793,14 +9576,14 @@
         <v>48</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="12" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
@@ -8814,7 +9597,7 @@
     </row>
     <row r="39" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>463</v>
@@ -8826,11 +9609,11 @@
         <v>48</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="12" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>528</v>
@@ -8847,7 +9630,7 @@
     </row>
     <row r="40" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>463</v>
@@ -8878,9 +9661,9 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B41" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>463</v>
@@ -8892,14 +9675,14 @@
         <v>48</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="12" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
@@ -8913,7 +9696,7 @@
     </row>
     <row r="42" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B42" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>463</v>
@@ -8925,14 +9708,14 @@
         <v>48</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
@@ -8944,9 +9727,9 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B43" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>463</v>
@@ -8958,14 +9741,14 @@
         <v>48</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>553</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11" t="s">
@@ -8979,7 +9762,7 @@
     </row>
     <row r="44" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B44" s="11" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>463</v>
@@ -8991,14 +9774,14 @@
         <v>48</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
@@ -9012,7 +9795,7 @@
     </row>
     <row r="45" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B45" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>463</v>
@@ -9024,14 +9807,14 @@
         <v>48</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
@@ -9043,60 +9826,60 @@
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="I46" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>560</v>
-      </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B48" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>161</v>
@@ -9105,14 +9888,14 @@
         <v>48</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>173</v>
+        <v>644</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="12" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>466</v>
+        <v>724</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
@@ -9124,12 +9907,12 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>155</v>
@@ -9138,11 +9921,11 @@
         <v>48</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>164</v>
@@ -9159,23 +9942,23 @@
     </row>
     <row r="50" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>567</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>571</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="12" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>467</v>
@@ -9192,10 +9975,10 @@
     </row>
     <row r="51" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>155</v>
@@ -9204,11 +9987,11 @@
         <v>48</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>468</v>
@@ -9225,10 +10008,10 @@
     </row>
     <row r="52" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>155</v>
@@ -9237,11 +10020,11 @@
         <v>48</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>469</v>
@@ -9258,10 +10041,10 @@
     </row>
     <row r="53" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>155</v>
@@ -9270,11 +10053,11 @@
         <v>48</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>470</v>
@@ -9291,10 +10074,10 @@
     </row>
     <row r="54" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>155</v>
@@ -9303,11 +10086,11 @@
         <v>48</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>471</v>
@@ -9324,10 +10107,10 @@
     </row>
     <row r="55" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>155</v>
@@ -9336,11 +10119,11 @@
         <v>48</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>472</v>
@@ -9357,10 +10140,10 @@
     </row>
     <row r="56" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B56" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>155</v>
@@ -9369,11 +10152,11 @@
         <v>48</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="12" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>473</v>
@@ -9390,10 +10173,10 @@
     </row>
     <row r="57" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>155</v>
@@ -9402,10 +10185,10 @@
         <v>48</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>474</v>
@@ -9422,10 +10205,10 @@
     </row>
     <row r="58" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B58" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>155</v>
@@ -9434,14 +10217,14 @@
         <v>48</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
@@ -9455,10 +10238,10 @@
     </row>
     <row r="59" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B59" s="11" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>155</v>
@@ -9467,11 +10250,11 @@
         <v>48</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>475</v>
@@ -9488,10 +10271,10 @@
     </row>
     <row r="60" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B60" s="11" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>155</v>
@@ -9500,11 +10283,11 @@
         <v>48</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>476</v>
@@ -9521,10 +10304,10 @@
     </row>
     <row r="61" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B61" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>155</v>
@@ -9533,11 +10316,11 @@
         <v>48</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="12" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>477</v>
@@ -9554,10 +10337,10 @@
     </row>
     <row r="62" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B62" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>155</v>
@@ -9566,14 +10349,14 @@
         <v>48</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="12" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11" t="s">
@@ -9587,10 +10370,10 @@
     </row>
     <row r="63" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B63" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>155</v>
@@ -9599,11 +10382,11 @@
         <v>48</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="12" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>478</v>
@@ -9620,10 +10403,10 @@
     </row>
     <row r="64" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B64" s="11" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>155</v>
@@ -9632,14 +10415,14 @@
         <v>48</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="12" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>509</v>
+        <v>598</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11" t="s">
@@ -9651,7 +10434,2679 @@
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B65" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B66" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B68" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B69" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B70" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B71" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B72" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B73" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B74" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B75" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B76" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B77" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+    </row>
+    <row r="78" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B78" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B79" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B80" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+    </row>
+    <row r="82" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B82" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B83" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B84" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B85" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B86" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B87" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B88" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B90" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G90" s="11"/>
+      <c r="H90" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B91" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+    </row>
+    <row r="92" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B92" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+    </row>
+    <row r="93" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B93" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B94" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B95" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B98" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B99" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B100" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B101" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B102" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B103" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B105" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B106" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B107" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B108" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B109" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B110" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B111" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B112" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="G112" s="11"/>
+      <c r="H112" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B113" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B114" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C114">
+      <formula1>"交易管理/产品申报登记,交易管理/产品信息导入,交易管理/预期收益型产品,交易管理/净值型产品,交易管理/结构性产品"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D114">
+      <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E114">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K114">
+      <formula1>"未测试,通过,不通过,不适用"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N120"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="18"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -9666,7 +13121,7 @@
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -9674,14 +13129,14 @@
       <c r="F66" s="12"/>
       <c r="G66" s="11"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="20"/>
+      <c r="I66" s="12"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -9696,7 +13151,7 @@
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -9711,7 +13166,7 @@
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -9726,7 +13181,7 @@
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -9741,7 +13196,7 @@
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -9756,13 +13211,13 @@
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="11"/>
@@ -9771,82 +13226,82 @@
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="22"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="G74" s="11"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="22"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
-      <c r="J75" s="22"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
-      <c r="J76" s="22"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="22"/>
+      <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -9855,55 +13310,58 @@
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
-      <c r="J78" s="22"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
-      <c r="N78" s="21"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
-      <c r="N79" s="21"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
-      <c r="N80" s="21"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B81" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B81" s="18"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="21"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+    </row>
+    <row r="82" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -9912,12 +13370,13 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
+      <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
-      <c r="N82" s="21"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -9926,12 +13385,13 @@
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
+      <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -9946,7 +13406,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -9961,7 +13421,7 @@
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -9976,7 +13436,7 @@
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -9991,7 +13451,7 @@
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -10006,7 +13466,7 @@
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -10021,7 +13481,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -10036,7 +13496,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -10051,7 +13511,7 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -10066,373 +13526,342 @@
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
+    <row r="93" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="11"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="H117" s="13"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-    </row>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+    </row>
+    <row r="115" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:N2"/>
@@ -10441,37 +13870,46 @@
     <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C92">
-      <formula1>"交易管理/产品申报登记,交易管理/产品信息导入,交易管理/预期收益型产品,交易管理/净值型产品,交易管理/结构性产品"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K114">
+      <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D92">
-      <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E114">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K93">
-      <formula1>"未测试,通过,不通过,不适用"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D114">
+      <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>字典!$B$1:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:C114</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:N29"/>
+  <dimension ref="B7:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13" bestFit="1" customWidth="1"/>
@@ -11080,14 +14518,19 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -11096,12 +14539,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11274,4 +14717,48 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wenjian/新资管案例.xlsx
+++ b/wenjian/新资管案例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="650" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="650" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -9967,48 +9967,6 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10052,6 +10010,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10457,13 +10457,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="71" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -10475,10 +10475,10 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="74" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -10487,32 +10487,32 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="6" t="s">
         <v>242</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="6" t="s">
         <v>243</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="70" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -10521,19 +10521,19 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -10541,9 +10541,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -10553,9 +10553,9 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -10565,9 +10565,9 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
@@ -10577,12 +10577,12 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="70" t="s">
         <v>867</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -10591,60 +10591,60 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -10653,49 +10653,49 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -10703,10 +10703,10 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -10715,39 +10715,39 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -10759,9 +10759,9 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="3" t="s">
         <v>7</v>
       </c>
@@ -10771,9 +10771,9 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
@@ -10783,9 +10783,9 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -10797,9 +10797,9 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
@@ -10809,9 +10809,9 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54" t="s">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -10821,9 +10821,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="3" t="s">
         <v>16</v>
       </c>
@@ -10831,9 +10831,9 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -10845,9 +10845,9 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="3" t="s">
         <v>19</v>
       </c>
@@ -10857,9 +10857,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
@@ -10869,10 +10869,10 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54" t="s">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -10881,40 +10881,40 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -10923,39 +10923,39 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="3" t="s">
         <v>22</v>
       </c>
@@ -10965,9 +10965,9 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
       <c r="D47" s="3" t="s">
         <v>84</v>
       </c>
@@ -10977,8 +10977,8 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
@@ -10991,9 +10991,9 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54" t="s">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -11003,9 +11003,9 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="3" t="s">
         <v>27</v>
       </c>
@@ -11013,7 +11013,7 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
@@ -11024,6 +11024,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="C2:C5"/>
@@ -11040,7 +11041,6 @@
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -12715,10 +12715,10 @@
   <dimension ref="B2:N111"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12741,21 +12741,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -12763,25 +12763,25 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -15920,7 +15920,6 @@
       <c r="N111" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:N87"/>
   <mergeCells count="4">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -15980,21 +15979,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -16002,25 +16001,25 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -19629,21 +19628,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -19651,25 +19650,25 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -20025,22 +20024,22 @@
       <c r="F15" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="9" t="s">
         <v>969</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="8" t="s">
         <v>158</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -21187,15 +21186,15 @@
       <c r="I50" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="J50" s="68"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="8" t="s">
         <v>158</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
     </row>
     <row r="51" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B51" s="8" t="s">
@@ -21558,7 +21557,7 @@
       <c r="F62" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="G62" s="68"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="9" t="s">
         <v>998</v>
       </c>
@@ -22324,15 +22323,15 @@
       <c r="I85" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="J85" s="68"/>
+      <c r="J85" s="54"/>
       <c r="K85" s="8" t="s">
         <v>158</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M85" s="68"/>
-      <c r="N85" s="68"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
     </row>
     <row r="86" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B86" s="8" t="s">
@@ -22708,7 +22707,7 @@
       <c r="F98" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="G98" s="68"/>
+      <c r="G98" s="54"/>
       <c r="H98" s="9" t="s">
         <v>1076</v>
       </c>
@@ -23299,7 +23298,7 @@
       <c r="F117" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="G117" s="68"/>
+      <c r="G117" s="54"/>
       <c r="H117" s="9" t="s">
         <v>1126</v>
       </c>
@@ -23746,22 +23745,22 @@
       <c r="N130" s="8"/>
     </row>
     <row r="131" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="69"/>
+      <c r="B131" s="55"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="69"/>
-      <c r="N131" s="69"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
+      <c r="L131" s="55"/>
+      <c r="M131" s="55"/>
+      <c r="N131" s="55"/>
     </row>
     <row r="132" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="72" t="s">
+      <c r="B132" s="58" t="s">
         <v>1172</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -23794,7 +23793,7 @@
       <c r="N132" s="8"/>
     </row>
     <row r="133" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B133" s="72" t="s">
+      <c r="B133" s="58" t="s">
         <v>1173</v>
       </c>
       <c r="C133" s="8" t="s">
@@ -23827,7 +23826,7 @@
       <c r="N133" s="18"/>
     </row>
     <row r="134" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B134" s="72" t="s">
+      <c r="B134" s="58" t="s">
         <v>1174</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -23860,7 +23859,7 @@
       <c r="N134" s="18"/>
     </row>
     <row r="135" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B135" s="72" t="s">
+      <c r="B135" s="58" t="s">
         <v>1175</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -23893,7 +23892,7 @@
       <c r="N135" s="18"/>
     </row>
     <row r="136" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B136" s="72" t="s">
+      <c r="B136" s="58" t="s">
         <v>1176</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -23926,7 +23925,7 @@
       <c r="N136" s="18"/>
     </row>
     <row r="137" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B137" s="72" t="s">
+      <c r="B137" s="58" t="s">
         <v>1195</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -23959,7 +23958,7 @@
       <c r="N137" s="18"/>
     </row>
     <row r="138" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B138" s="72" t="s">
+      <c r="B138" s="58" t="s">
         <v>1177</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -23992,7 +23991,7 @@
       <c r="N138" s="18"/>
     </row>
     <row r="139" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B139" s="72" t="s">
+      <c r="B139" s="58" t="s">
         <v>1178</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -24025,7 +24024,7 @@
       <c r="N139" s="18"/>
     </row>
     <row r="140" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B140" s="72" t="s">
+      <c r="B140" s="58" t="s">
         <v>1179</v>
       </c>
       <c r="C140" s="8" t="s">
@@ -24058,7 +24057,7 @@
       <c r="N140" s="18"/>
     </row>
     <row r="141" spans="2:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="B141" s="72" t="s">
+      <c r="B141" s="58" t="s">
         <v>1180</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -24077,7 +24076,7 @@
       <c r="H141" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="I141" s="71" t="s">
+      <c r="I141" s="57" t="s">
         <v>1207</v>
       </c>
       <c r="J141" s="18"/>
@@ -24091,7 +24090,7 @@
       <c r="N141" s="18"/>
     </row>
     <row r="142" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B142" s="72" t="s">
+      <c r="B142" s="58" t="s">
         <v>1181</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -24110,7 +24109,7 @@
       <c r="H142" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="I142" s="71" t="s">
+      <c r="I142" s="57" t="s">
         <v>1210</v>
       </c>
       <c r="J142" s="18"/>
@@ -24124,7 +24123,7 @@
       <c r="N142" s="18"/>
     </row>
     <row r="143" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B143" s="72" t="s">
+      <c r="B143" s="58" t="s">
         <v>1182</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -24143,7 +24142,7 @@
       <c r="H143" s="9" t="s">
         <v>1211</v>
       </c>
-      <c r="I143" s="71" t="s">
+      <c r="I143" s="57" t="s">
         <v>1212</v>
       </c>
       <c r="J143" s="18"/>
@@ -24157,7 +24156,7 @@
       <c r="N143" s="18"/>
     </row>
     <row r="144" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B144" s="72" t="s">
+      <c r="B144" s="58" t="s">
         <v>1183</v>
       </c>
       <c r="C144" s="8" t="s">
@@ -24176,7 +24175,7 @@
       <c r="H144" s="9" t="s">
         <v>1214</v>
       </c>
-      <c r="I144" s="71" t="s">
+      <c r="I144" s="57" t="s">
         <v>1215</v>
       </c>
       <c r="J144" s="18"/>
@@ -24190,7 +24189,7 @@
       <c r="N144" s="18"/>
     </row>
     <row r="145" spans="2:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="B145" s="72" t="s">
+      <c r="B145" s="58" t="s">
         <v>1184</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -24209,7 +24208,7 @@
       <c r="H145" s="9" t="s">
         <v>1217</v>
       </c>
-      <c r="I145" s="71" t="s">
+      <c r="I145" s="57" t="s">
         <v>1218</v>
       </c>
       <c r="J145" s="18"/>
@@ -24223,7 +24222,7 @@
       <c r="N145" s="18"/>
     </row>
     <row r="146" spans="2:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="B146" s="72" t="s">
+      <c r="B146" s="58" t="s">
         <v>1185</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -24242,7 +24241,7 @@
       <c r="H146" s="9" t="s">
         <v>1219</v>
       </c>
-      <c r="I146" s="71" t="s">
+      <c r="I146" s="57" t="s">
         <v>1220</v>
       </c>
       <c r="J146" s="18"/>
@@ -24256,7 +24255,7 @@
       <c r="N146" s="18"/>
     </row>
     <row r="147" spans="2:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="B147" s="72" t="s">
+      <c r="B147" s="58" t="s">
         <v>1227</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -24275,7 +24274,7 @@
       <c r="H147" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="I147" s="71" t="s">
+      <c r="I147" s="57" t="s">
         <v>1222</v>
       </c>
       <c r="J147" s="18"/>
@@ -24289,7 +24288,7 @@
       <c r="N147" s="18"/>
     </row>
     <row r="148" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B148" s="72" t="s">
+      <c r="B148" s="58" t="s">
         <v>1228</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -24308,7 +24307,7 @@
       <c r="H148" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="I148" s="71" t="s">
+      <c r="I148" s="57" t="s">
         <v>1224</v>
       </c>
       <c r="J148" s="18"/>
@@ -24322,7 +24321,7 @@
       <c r="N148" s="18"/>
     </row>
     <row r="149" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B149" s="72" t="s">
+      <c r="B149" s="58" t="s">
         <v>1229</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -24341,7 +24340,7 @@
       <c r="H149" s="9" t="s">
         <v>1225</v>
       </c>
-      <c r="I149" s="71" t="s">
+      <c r="I149" s="57" t="s">
         <v>1226</v>
       </c>
       <c r="J149" s="18"/>
@@ -24399,7 +24398,7 @@
       <selection activeCell="H7" sqref="H7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
@@ -24419,47 +24418,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-    </row>
-    <row r="3" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -24789,7 +24788,7 @@
       <c r="I14" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="8" t="s">
         <v>158</v>
       </c>
@@ -24829,8 +24828,8 @@
       <c r="L15" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -25086,7 +25085,7 @@
       <c r="I23" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="8" t="s">
         <v>158</v>
       </c>
@@ -25383,7 +25382,7 @@
       <c r="I32" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="J32" s="68"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="8" t="s">
         <v>158</v>
       </c>
@@ -25393,7 +25392,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -25408,7 +25407,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -25423,7 +25422,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -25438,7 +25437,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -25453,7 +25452,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -25468,7 +25467,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -25483,7 +25482,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -25498,7 +25497,7 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -25513,7 +25512,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -25528,7 +25527,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -25543,7 +25542,7 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -25558,7 +25557,7 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -25573,7 +25572,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -25588,7 +25587,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -25603,7 +25602,7 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -25618,7 +25617,7 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -25633,7 +25632,7 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -25648,7 +25647,7 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -25657,13 +25656,13 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="68"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-    </row>
-    <row r="51" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -25678,7 +25677,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -25693,7 +25692,7 @@
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -25708,7 +25707,7 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -25723,7 +25722,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -25738,7 +25737,7 @@
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -25753,7 +25752,7 @@
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -25768,7 +25767,7 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -25783,7 +25782,7 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -25798,7 +25797,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -25813,7 +25812,7 @@
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -25828,13 +25827,13 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="68"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="8"/>
@@ -25843,7 +25842,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -25858,7 +25857,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -25873,7 +25872,7 @@
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -25888,7 +25887,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -25903,7 +25902,7 @@
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -25918,7 +25917,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -25933,7 +25932,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -25948,7 +25947,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -25963,7 +25962,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -25978,7 +25977,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -25993,7 +25992,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -26008,7 +26007,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -26023,7 +26022,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -26038,7 +26037,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -26053,7 +26052,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -26068,7 +26067,7 @@
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -26083,7 +26082,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -26098,7 +26097,7 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -26113,7 +26112,7 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -26128,7 +26127,7 @@
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -26143,7 +26142,7 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -26158,7 +26157,7 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -26173,7 +26172,7 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -26182,13 +26181,13 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="68"/>
+      <c r="J85" s="54"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="68"/>
-      <c r="N85" s="68"/>
-    </row>
-    <row r="86" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -26203,7 +26202,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -26218,7 +26217,7 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
     </row>
-    <row r="88" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -26233,7 +26232,7 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -26248,7 +26247,7 @@
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -26263,7 +26262,7 @@
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -26278,7 +26277,7 @@
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -26293,7 +26292,7 @@
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -26308,7 +26307,7 @@
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -26323,7 +26322,7 @@
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -26338,7 +26337,7 @@
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -26353,7 +26352,7 @@
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -26368,13 +26367,13 @@
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
     </row>
-    <row r="98" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="68"/>
+      <c r="G98" s="54"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="8"/>
@@ -26383,7 +26382,7 @@
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -26398,7 +26397,7 @@
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -26413,7 +26412,7 @@
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -26428,7 +26427,7 @@
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -26443,7 +26442,7 @@
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -26458,7 +26457,7 @@
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -26473,7 +26472,7 @@
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -26488,7 +26487,7 @@
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -26503,7 +26502,7 @@
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -26518,7 +26517,7 @@
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
@@ -26533,7 +26532,7 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
     </row>
-    <row r="109" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -26548,7 +26547,7 @@
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
     </row>
-    <row r="110" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -26563,7 +26562,7 @@
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -26578,7 +26577,7 @@
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -26593,7 +26592,7 @@
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
     </row>
-    <row r="113" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -26608,7 +26607,7 @@
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -26623,7 +26622,7 @@
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -26638,7 +26637,7 @@
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -26653,13 +26652,13 @@
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="68"/>
+      <c r="G117" s="54"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
       <c r="J117" s="8"/>
@@ -26668,7 +26667,7 @@
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -26683,7 +26682,7 @@
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -26698,7 +26697,7 @@
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -26713,7 +26712,7 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -26728,7 +26727,7 @@
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -26743,7 +26742,7 @@
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -26758,7 +26757,7 @@
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -26773,7 +26772,7 @@
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -26788,7 +26787,7 @@
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
     </row>
-    <row r="126" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -26803,7 +26802,7 @@
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -26818,7 +26817,7 @@
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -26833,7 +26832,7 @@
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -26848,7 +26847,7 @@
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
     </row>
-    <row r="130" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -26864,22 +26863,22 @@
       <c r="N130" s="8"/>
     </row>
     <row r="131" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="69"/>
+      <c r="B131" s="55"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="69"/>
-      <c r="N131" s="69"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
+      <c r="L131" s="55"/>
+      <c r="M131" s="55"/>
+      <c r="N131" s="55"/>
     </row>
     <row r="132" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="72"/>
+      <c r="B132" s="58"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -26893,8 +26892,8 @@
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
     </row>
-    <row r="133" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B133" s="72"/>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B133" s="58"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -26908,8 +26907,8 @@
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
     </row>
-    <row r="134" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B134" s="72"/>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B134" s="58"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -26923,8 +26922,8 @@
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
     </row>
-    <row r="135" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B135" s="72"/>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B135" s="58"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -26938,8 +26937,8 @@
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
     </row>
-    <row r="136" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B136" s="72"/>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B136" s="58"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -26953,8 +26952,8 @@
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
     </row>
-    <row r="137" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B137" s="72"/>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B137" s="58"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -26968,8 +26967,8 @@
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
     </row>
-    <row r="138" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B138" s="72"/>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B138" s="58"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -26983,8 +26982,8 @@
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
     </row>
-    <row r="139" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B139" s="72"/>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B139" s="58"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -26998,8 +26997,8 @@
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
     </row>
-    <row r="140" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B140" s="72"/>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B140" s="58"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -27013,135 +27012,135 @@
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B141" s="72"/>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B141" s="58"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="18"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="71"/>
+      <c r="I141" s="57"/>
       <c r="J141" s="18"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
     </row>
-    <row r="142" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B142" s="72"/>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B142" s="58"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="9"/>
       <c r="G142" s="18"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="71"/>
+      <c r="I142" s="57"/>
       <c r="J142" s="18"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
     </row>
-    <row r="143" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B143" s="72"/>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B143" s="58"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="9"/>
       <c r="G143" s="18"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="71"/>
+      <c r="I143" s="57"/>
       <c r="J143" s="18"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
     </row>
-    <row r="144" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B144" s="72"/>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B144" s="58"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
       <c r="G144" s="18"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="71"/>
+      <c r="I144" s="57"/>
       <c r="J144" s="18"/>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
     </row>
-    <row r="145" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B145" s="72"/>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B145" s="58"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="18"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="71"/>
+      <c r="I145" s="57"/>
       <c r="J145" s="18"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
     </row>
-    <row r="146" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B146" s="72"/>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B146" s="58"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="18"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="71"/>
+      <c r="I146" s="57"/>
       <c r="J146" s="18"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
     </row>
-    <row r="147" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B147" s="72"/>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B147" s="58"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="18"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="71"/>
+      <c r="I147" s="57"/>
       <c r="J147" s="18"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
     </row>
-    <row r="148" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B148" s="72"/>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B148" s="58"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="18"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="71"/>
+      <c r="I148" s="57"/>
       <c r="J148" s="18"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
     </row>
-    <row r="149" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B149" s="72"/>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B149" s="58"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="18"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="71"/>
+      <c r="I149" s="57"/>
       <c r="J149" s="18"/>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -27192,13 +27191,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N154"/>
+  <dimension ref="B2:N153"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
@@ -27218,47 +27217,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-    </row>
-    <row r="3" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -27621,7 +27620,7 @@
       <c r="I15" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="8" t="s">
         <v>158</v>
       </c>
@@ -27662,7 +27661,7 @@
         <v>159</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="68"/>
+      <c r="N16" s="54"/>
     </row>
     <row r="17" spans="2:14" ht="135" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
@@ -27763,7 +27762,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -27900,7 +27899,7 @@
       <c r="I24" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="J24" s="68"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="8" t="s">
         <v>158</v>
       </c>
@@ -28197,7 +28196,7 @@
       <c r="I33" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="J33" s="68"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="8" t="s">
         <v>158</v>
       </c>
@@ -28240,7 +28239,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -28816,7 +28815,7 @@
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -28854,7 +28853,7 @@
       <c r="I54" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="J54" s="68"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="8" t="s">
         <v>158</v>
       </c>
@@ -28862,7 +28861,7 @@
         <v>159</v>
       </c>
       <c r="M54" s="8"/>
-      <c r="N54" s="68"/>
+      <c r="N54" s="54"/>
     </row>
     <row r="55" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B55" s="8" t="s">
@@ -29210,7 +29209,7 @@
       <c r="F65" s="8" t="s">
         <v>1466</v>
       </c>
-      <c r="G65" s="68"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="9" t="s">
         <v>1474</v>
       </c>
@@ -29557,7 +29556,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -29991,7 +29990,7 @@
       <c r="I89" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="J89" s="68"/>
+      <c r="J89" s="54"/>
       <c r="K89" s="8" t="s">
         <v>158</v>
       </c>
@@ -29999,7 +29998,7 @@
         <v>159</v>
       </c>
       <c r="M89" s="8"/>
-      <c r="N89" s="68"/>
+      <c r="N89" s="54"/>
     </row>
     <row r="90" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B90" s="8" t="s">
@@ -30050,14 +30049,14 @@
       <c r="F91" s="8" t="s">
         <v>1546</v>
       </c>
-      <c r="G91" s="68"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="J91" s="68"/>
+      <c r="J91" s="54"/>
       <c r="K91" s="8" t="s">
         <v>158</v>
       </c>
@@ -30065,7 +30064,7 @@
         <v>159</v>
       </c>
       <c r="M91" s="8"/>
-      <c r="N91" s="68"/>
+      <c r="N91" s="54"/>
     </row>
     <row r="92" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B92" s="8" t="s">
@@ -30331,7 +30330,7 @@
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -30379,7 +30378,7 @@
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B102" s="8" t="s">
         <v>1578</v>
       </c>
@@ -30412,7 +30411,7 @@
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B103" s="8" t="s">
         <v>1568</v>
       </c>
@@ -30445,7 +30444,7 @@
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B104" s="8" t="s">
         <v>1569</v>
       </c>
@@ -30478,7 +30477,7 @@
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B105" s="8" t="s">
         <v>1570</v>
       </c>
@@ -30511,7 +30510,7 @@
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>1571</v>
       </c>
@@ -30577,7 +30576,7 @@
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B108" s="8" t="s">
         <v>1573</v>
       </c>
@@ -30676,7 +30675,7 @@
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B111" s="8" t="s">
         <v>1576</v>
       </c>
@@ -30725,14 +30724,14 @@
       <c r="F112" s="8" t="s">
         <v>1621</v>
       </c>
-      <c r="G112" s="68"/>
+      <c r="G112" s="54"/>
       <c r="H112" s="9" t="s">
         <v>1606</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>1470</v>
       </c>
-      <c r="J112" s="68"/>
+      <c r="J112" s="54"/>
       <c r="K112" s="8" t="s">
         <v>158</v>
       </c>
@@ -30740,9 +30739,9 @@
         <v>159</v>
       </c>
       <c r="M112" s="8"/>
-      <c r="N112" s="68"/>
-    </row>
-    <row r="113" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="N112" s="54"/>
+    </row>
+    <row r="113" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B113" s="8" t="s">
         <v>1627</v>
       </c>
@@ -30775,7 +30774,7 @@
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B114" s="8" t="s">
         <v>1628</v>
       </c>
@@ -30808,7 +30807,7 @@
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B115" s="8" t="s">
         <v>1629</v>
       </c>
@@ -30841,7 +30840,7 @@
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B116" s="8" t="s">
         <v>1630</v>
       </c>
@@ -30874,7 +30873,7 @@
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B117" s="8" t="s">
         <v>1631</v>
       </c>
@@ -30907,7 +30906,7 @@
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>1632</v>
       </c>
@@ -30940,7 +30939,7 @@
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B119" s="8" t="s">
         <v>1633</v>
       </c>
@@ -31006,7 +31005,7 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B121" s="8" t="s">
         <v>1635</v>
       </c>
@@ -31022,7 +31021,7 @@
       <c r="F121" s="8" t="s">
         <v>1625</v>
       </c>
-      <c r="G121" s="68"/>
+      <c r="G121" s="54"/>
       <c r="H121" s="9" t="s">
         <v>1614</v>
       </c>
@@ -31171,7 +31170,7 @@
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
     </row>
-    <row r="126" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
@@ -31186,7 +31185,7 @@
       <c r="M126" s="15"/>
       <c r="N126" s="15"/>
     </row>
-    <row r="127" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B127" s="8" t="s">
         <v>1671</v>
       </c>
@@ -31219,7 +31218,7 @@
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B128" s="8" t="s">
         <v>1672</v>
       </c>
@@ -31252,7 +31251,7 @@
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B129" s="8" t="s">
         <v>1673</v>
       </c>
@@ -31285,7 +31284,7 @@
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
     </row>
-    <row r="130" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>1674</v>
       </c>
@@ -31318,7 +31317,7 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
     </row>
-    <row r="131" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B131" s="8" t="s">
         <v>1675</v>
       </c>
@@ -31351,7 +31350,7 @@
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
     </row>
-    <row r="132" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B132" s="8" t="s">
         <v>1676</v>
       </c>
@@ -31384,7 +31383,7 @@
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
     </row>
-    <row r="133" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B133" s="8" t="s">
         <v>1677</v>
       </c>
@@ -31417,7 +31416,7 @@
       <c r="M133" s="8"/>
       <c r="N133" s="8"/>
     </row>
-    <row r="134" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B134" s="8" t="s">
         <v>1678</v>
       </c>
@@ -31473,7 +31472,7 @@
       <c r="I135" s="9" t="s">
         <v>1463</v>
       </c>
-      <c r="J135" s="73"/>
+      <c r="J135" s="59"/>
       <c r="K135" s="8" t="s">
         <v>158</v>
       </c>
@@ -31481,7 +31480,7 @@
         <v>159</v>
       </c>
       <c r="M135" s="8"/>
-      <c r="N135" s="73"/>
+      <c r="N135" s="59"/>
     </row>
     <row r="136" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
@@ -31565,7 +31564,7 @@
       <c r="F138" s="8" t="s">
         <v>1642</v>
       </c>
-      <c r="G138" s="68"/>
+      <c r="G138" s="54"/>
       <c r="H138" s="9" t="s">
         <v>1656</v>
       </c>
@@ -31862,7 +31861,7 @@
       <c r="F147" s="8" t="s">
         <v>1644</v>
       </c>
-      <c r="G147" s="68"/>
+      <c r="G147" s="54"/>
       <c r="H147" s="9" t="s">
         <v>1665</v>
       </c>
@@ -32011,37 +32010,36 @@
       <c r="M151" s="8"/>
       <c r="N151" s="18"/>
     </row>
-    <row r="152" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B152" s="72"/>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B152" s="58"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="18"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="71"/>
+      <c r="I152" s="57"/>
       <c r="J152" s="18"/>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="18"/>
       <c r="N152" s="18"/>
     </row>
-    <row r="153" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B153" s="72"/>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B153" s="58"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="18"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="71"/>
+      <c r="I153" s="57"/>
       <c r="J153" s="18"/>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
     </row>
-    <row r="154" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:N2"/>
@@ -32088,11 +32086,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N149"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
@@ -32112,47 +32110,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-    </row>
-    <row r="3" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
@@ -32199,7 +32197,7 @@
       <c r="B6" s="8" t="s">
         <v>1695</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -32232,7 +32230,7 @@
       <c r="B7" s="8" t="s">
         <v>1717</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -32265,7 +32263,7 @@
       <c r="B8" s="8" t="s">
         <v>1718</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -32298,7 +32296,7 @@
       <c r="B9" s="8" t="s">
         <v>1719</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -32331,7 +32329,7 @@
       <c r="B10" s="8" t="s">
         <v>1720</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -32364,7 +32362,7 @@
       <c r="B11" s="8" t="s">
         <v>1721</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -32397,7 +32395,7 @@
       <c r="B12" s="8" t="s">
         <v>1722</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -32430,7 +32428,7 @@
       <c r="B13" s="8" t="s">
         <v>1723</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -32463,7 +32461,7 @@
       <c r="B14" s="8" t="s">
         <v>1724</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -32482,7 +32480,7 @@
       <c r="I14" s="9" t="s">
         <v>1716</v>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="8" t="s">
         <v>158</v>
       </c>
@@ -32496,7 +32494,7 @@
       <c r="B15" s="8" t="s">
         <v>1725</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -32522,14 +32520,14 @@
       <c r="L15" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>1726</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -32562,7 +32560,7 @@
       <c r="B17" s="8" t="s">
         <v>1727</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -32595,7 +32593,7 @@
       <c r="B18" s="8" t="s">
         <v>1728</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -32628,7 +32626,7 @@
       <c r="B19" s="8" t="s">
         <v>1729</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -32661,7 +32659,7 @@
       <c r="B20" s="8" t="s">
         <v>1730</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -32694,7 +32692,7 @@
       <c r="B21" s="8" t="s">
         <v>1731</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -32727,7 +32725,7 @@
       <c r="B22" s="8" t="s">
         <v>1735</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -32760,7 +32758,7 @@
       <c r="B23" s="8" t="s">
         <v>1739</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="60" t="s">
         <v>1696</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -32779,7 +32777,7 @@
       <c r="I23" s="9" t="s">
         <v>1738</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="8" t="s">
         <v>158</v>
       </c>
@@ -32789,7 +32787,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -32804,7 +32802,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -32819,7 +32817,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -32834,7 +32832,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -32849,7 +32847,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -32864,7 +32862,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -32879,7 +32877,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -32894,7 +32892,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -32909,7 +32907,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -32918,13 +32916,13 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="68"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -32939,7 +32937,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -32954,7 +32952,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -32969,7 +32967,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -32984,7 +32982,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -32999,7 +32997,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -33014,7 +33012,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -33029,7 +33027,7 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -33044,7 +33042,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -33059,7 +33057,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -33074,7 +33072,7 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -33089,7 +33087,7 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -33104,7 +33102,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -33119,7 +33117,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -33134,7 +33132,7 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -33149,7 +33147,7 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -33164,7 +33162,7 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -33179,7 +33177,7 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -33188,13 +33186,13 @@
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="68"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-    </row>
-    <row r="51" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -33209,7 +33207,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -33224,7 +33222,7 @@
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -33239,7 +33237,7 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -33254,7 +33252,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -33269,7 +33267,7 @@
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -33284,7 +33282,7 @@
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -33299,7 +33297,7 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -33314,7 +33312,7 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -33329,7 +33327,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -33344,7 +33342,7 @@
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -33359,13 +33357,13 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="68"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="8"/>
@@ -33374,7 +33372,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -33389,7 +33387,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -33404,7 +33402,7 @@
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -33419,7 +33417,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -33434,7 +33432,7 @@
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -33449,7 +33447,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -33464,7 +33462,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -33479,7 +33477,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -33494,7 +33492,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -33509,7 +33507,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -33524,7 +33522,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -33539,7 +33537,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -33554,7 +33552,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -33569,7 +33567,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -33584,7 +33582,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -33599,7 +33597,7 @@
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -33614,7 +33612,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -33629,7 +33627,7 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -33644,7 +33642,7 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -33659,7 +33657,7 @@
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -33674,7 +33672,7 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -33689,7 +33687,7 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -33704,7 +33702,7 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -33713,13 +33711,13 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="68"/>
+      <c r="J85" s="54"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="68"/>
-      <c r="N85" s="68"/>
-    </row>
-    <row r="86" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -33734,7 +33732,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -33749,7 +33747,7 @@
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
     </row>
-    <row r="88" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -33764,7 +33762,7 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -33779,7 +33777,7 @@
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -33794,7 +33792,7 @@
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -33809,7 +33807,7 @@
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -33824,7 +33822,7 @@
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -33839,7 +33837,7 @@
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -33854,7 +33852,7 @@
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -33869,7 +33867,7 @@
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -33884,7 +33882,7 @@
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -33899,13 +33897,13 @@
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
     </row>
-    <row r="98" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="68"/>
+      <c r="G98" s="54"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="8"/>
@@ -33914,7 +33912,7 @@
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -33929,7 +33927,7 @@
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -33944,7 +33942,7 @@
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -33959,7 +33957,7 @@
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -33974,7 +33972,7 @@
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -33989,7 +33987,7 @@
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -34004,7 +34002,7 @@
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -34019,7 +34017,7 @@
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -34034,7 +34032,7 @@
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -34049,7 +34047,7 @@
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
@@ -34064,7 +34062,7 @@
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
     </row>
-    <row r="109" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -34079,7 +34077,7 @@
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
     </row>
-    <row r="110" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -34094,7 +34092,7 @@
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -34109,7 +34107,7 @@
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -34124,7 +34122,7 @@
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
     </row>
-    <row r="113" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -34139,7 +34137,7 @@
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -34154,7 +34152,7 @@
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -34169,7 +34167,7 @@
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -34184,13 +34182,13 @@
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="68"/>
+      <c r="G117" s="54"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
       <c r="J117" s="8"/>
@@ -34199,7 +34197,7 @@
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -34214,7 +34212,7 @@
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -34229,7 +34227,7 @@
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -34244,7 +34242,7 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -34259,7 +34257,7 @@
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -34274,7 +34272,7 @@
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -34289,7 +34287,7 @@
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -34304,7 +34302,7 @@
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -34319,7 +34317,7 @@
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
     </row>
-    <row r="126" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -34334,7 +34332,7 @@
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -34349,7 +34347,7 @@
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -34364,7 +34362,7 @@
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -34379,7 +34377,7 @@
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
     </row>
-    <row r="130" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -34395,22 +34393,22 @@
       <c r="N130" s="8"/>
     </row>
     <row r="131" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="69"/>
+      <c r="B131" s="55"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="69"/>
-      <c r="N131" s="69"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
+      <c r="L131" s="55"/>
+      <c r="M131" s="55"/>
+      <c r="N131" s="55"/>
     </row>
     <row r="132" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="72"/>
+      <c r="B132" s="58"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -34424,8 +34422,8 @@
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
     </row>
-    <row r="133" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B133" s="72"/>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B133" s="58"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -34439,8 +34437,8 @@
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
     </row>
-    <row r="134" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B134" s="72"/>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B134" s="58"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -34454,8 +34452,8 @@
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
     </row>
-    <row r="135" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B135" s="72"/>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B135" s="58"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -34469,8 +34467,8 @@
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
     </row>
-    <row r="136" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B136" s="72"/>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B136" s="58"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -34484,8 +34482,8 @@
       <c r="M136" s="18"/>
       <c r="N136" s="18"/>
     </row>
-    <row r="137" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B137" s="72"/>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B137" s="58"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -34499,8 +34497,8 @@
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
     </row>
-    <row r="138" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B138" s="72"/>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B138" s="58"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -34514,8 +34512,8 @@
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
     </row>
-    <row r="139" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B139" s="72"/>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B139" s="58"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -34529,8 +34527,8 @@
       <c r="M139" s="18"/>
       <c r="N139" s="18"/>
     </row>
-    <row r="140" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B140" s="72"/>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B140" s="58"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -34544,135 +34542,135 @@
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B141" s="72"/>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B141" s="58"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="18"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="71"/>
+      <c r="I141" s="57"/>
       <c r="J141" s="18"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="18"/>
       <c r="N141" s="18"/>
     </row>
-    <row r="142" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B142" s="72"/>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B142" s="58"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="9"/>
       <c r="G142" s="18"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="71"/>
+      <c r="I142" s="57"/>
       <c r="J142" s="18"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="18"/>
       <c r="N142" s="18"/>
     </row>
-    <row r="143" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B143" s="72"/>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B143" s="58"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="9"/>
       <c r="G143" s="18"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="71"/>
+      <c r="I143" s="57"/>
       <c r="J143" s="18"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
     </row>
-    <row r="144" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B144" s="72"/>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B144" s="58"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
       <c r="G144" s="18"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="71"/>
+      <c r="I144" s="57"/>
       <c r="J144" s="18"/>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
     </row>
-    <row r="145" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B145" s="72"/>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B145" s="58"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="18"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="71"/>
+      <c r="I145" s="57"/>
       <c r="J145" s="18"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
     </row>
-    <row r="146" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B146" s="72"/>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B146" s="58"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="18"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="71"/>
+      <c r="I146" s="57"/>
       <c r="J146" s="18"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="18"/>
       <c r="N146" s="18"/>
     </row>
-    <row r="147" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B147" s="72"/>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B147" s="58"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="18"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="71"/>
+      <c r="I147" s="57"/>
       <c r="J147" s="18"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="18"/>
       <c r="N147" s="18"/>
     </row>
-    <row r="148" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B148" s="72"/>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B148" s="58"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="18"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="71"/>
+      <c r="I148" s="57"/>
       <c r="J148" s="18"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="18"/>
       <c r="N148" s="18"/>
     </row>
-    <row r="149" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B149" s="72"/>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B149" s="58"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="18"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="71"/>
+      <c r="I149" s="57"/>
       <c r="J149" s="18"/>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -34726,8 +34724,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35369,7 +35367,7 @@
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:13" ht="54" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="83" t="s">
         <v>819</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -35395,8 +35393,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80" t="s">
         <v>833</v>
       </c>
       <c r="C29" s="49" t="s">
@@ -35419,8 +35417,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="54" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="51" t="s">
         <v>821</v>
       </c>
@@ -35441,8 +35439,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="54" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="51" t="s">
         <v>828</v>
       </c>
@@ -35463,8 +35461,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="54" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="51" t="s">
         <v>837</v>
       </c>
@@ -35485,7 +35483,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="54" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="79" t="s">
         <v>822</v>
       </c>
       <c r="B33" s="51" t="s">
@@ -35509,8 +35507,8 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="54" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="80" t="s">
         <v>833</v>
       </c>
       <c r="C34" s="51" t="s">
@@ -35531,8 +35529,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="54" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="51" t="s">
         <v>825</v>
       </c>
@@ -35551,8 +35549,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="54" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="51" t="s">
         <v>826</v>
       </c>
@@ -35571,18 +35569,18 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="51" t="s">
         <v>827</v>
       </c>
       <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="79" t="s">
         <v>832</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="80" t="s">
         <v>833</v>
       </c>
       <c r="C38" s="51" t="s">
@@ -35593,8 +35591,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="52" t="s">
         <v>834</v>
       </c>
@@ -35603,1627 +35601,1627 @@
       </c>
     </row>
     <row r="41" spans="1:21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="61" t="s">
         <v>729</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="61" t="s">
         <v>734</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="61" t="s">
         <v>739</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="61" t="s">
         <v>741</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="61" t="s">
         <v>742</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="61" t="s">
         <v>744</v>
       </c>
-      <c r="G41" s="75" t="s">
+      <c r="G41" s="61" t="s">
         <v>746</v>
       </c>
-      <c r="H41" s="75" t="s">
+      <c r="H41" s="61" t="s">
         <v>749</v>
       </c>
-      <c r="I41" s="75" t="s">
+      <c r="I41" s="61" t="s">
         <v>751</v>
       </c>
-      <c r="J41" s="75" t="s">
+      <c r="J41" s="61" t="s">
         <v>752</v>
       </c>
-      <c r="K41" s="75" t="s">
+      <c r="K41" s="61" t="s">
         <v>755</v>
       </c>
-      <c r="L41" s="75" t="s">
+      <c r="L41" s="61" t="s">
         <v>756</v>
       </c>
-      <c r="M41" s="75" t="s">
+      <c r="M41" s="61" t="s">
         <v>757</v>
       </c>
-      <c r="N41" s="75" t="s">
+      <c r="N41" s="61" t="s">
         <v>758</v>
       </c>
-      <c r="O41" s="75" t="s">
+      <c r="O41" s="61" t="s">
         <v>759</v>
       </c>
-      <c r="P41" s="75" t="s">
+      <c r="P41" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="Q41" s="75" t="s">
+      <c r="Q41" s="61" t="s">
         <v>761</v>
       </c>
-      <c r="R41" s="75" t="s">
+      <c r="R41" s="61" t="s">
         <v>763</v>
       </c>
-      <c r="S41" s="75" t="s">
+      <c r="S41" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="T41" s="75" t="s">
+      <c r="T41" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="U41" s="75" t="s">
+      <c r="U41" s="61" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="62" t="s">
         <v>730</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="63" t="s">
         <v>735</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="D42" s="77">
+      <c r="D42" s="63">
         <v>1.68</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="63" t="s">
         <v>743</v>
       </c>
-      <c r="F42" s="77" t="s">
+      <c r="F42" s="63" t="s">
         <v>745</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="63" t="s">
         <v>747</v>
       </c>
-      <c r="H42" s="77" t="s">
+      <c r="H42" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="I42" s="77">
+      <c r="I42" s="63">
         <v>100000</v>
       </c>
-      <c r="J42" s="77" t="s">
+      <c r="J42" s="63" t="s">
         <v>753</v>
       </c>
-      <c r="K42" s="78">
+      <c r="K42" s="64">
         <v>42779</v>
       </c>
-      <c r="L42" s="78">
+      <c r="L42" s="64">
         <v>42779</v>
       </c>
-      <c r="M42" s="78">
+      <c r="M42" s="64">
         <v>42780</v>
       </c>
-      <c r="N42" s="78">
+      <c r="N42" s="64">
         <v>55153</v>
       </c>
-      <c r="O42" s="78">
+      <c r="O42" s="64">
         <v>42915</v>
       </c>
-      <c r="P42" s="78">
+      <c r="P42" s="64">
         <v>42915</v>
       </c>
-      <c r="Q42" s="79" t="s">
+      <c r="Q42" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="R42" s="79" t="s">
+      <c r="R42" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="S42" s="77">
+      <c r="S42" s="63">
         <v>1.68</v>
       </c>
-      <c r="T42" s="77">
+      <c r="T42" s="63">
         <v>12373</v>
       </c>
-      <c r="U42" s="77" t="s">
+      <c r="U42" s="63" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="62" t="s">
         <v>768</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="63" t="s">
         <v>769</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="63" t="s">
         <v>770</v>
       </c>
-      <c r="D43" s="77">
+      <c r="D43" s="63">
         <v>4.5</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="63" t="s">
         <v>743</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="F43" s="63" t="s">
         <v>745</v>
       </c>
-      <c r="G43" s="77" t="s">
+      <c r="G43" s="63" t="s">
         <v>748</v>
       </c>
-      <c r="H43" s="77" t="s">
+      <c r="H43" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="I43" s="77">
+      <c r="I43" s="63">
         <v>50000</v>
       </c>
-      <c r="J43" s="77" t="s">
+      <c r="J43" s="63" t="s">
         <v>754</v>
       </c>
-      <c r="K43" s="78">
+      <c r="K43" s="64">
         <v>42775</v>
       </c>
-      <c r="L43" s="78">
+      <c r="L43" s="64">
         <v>42781</v>
       </c>
-      <c r="M43" s="78">
+      <c r="M43" s="64">
         <v>42782</v>
       </c>
-      <c r="N43" s="78">
+      <c r="N43" s="64">
         <v>73050</v>
       </c>
-      <c r="O43" s="78">
+      <c r="O43" s="64">
         <v>42908</v>
       </c>
-      <c r="P43" s="78">
+      <c r="P43" s="64">
         <v>42908</v>
       </c>
-      <c r="Q43" s="79" t="s">
+      <c r="Q43" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="R43" s="79" t="s">
+      <c r="R43" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="S43" s="77">
+      <c r="S43" s="63">
         <v>4.5</v>
       </c>
-      <c r="T43" s="77">
+      <c r="T43" s="63">
         <v>30268</v>
       </c>
-      <c r="U43" s="77" t="s">
+      <c r="U43" s="63" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="62" t="s">
         <v>731</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="63" t="s">
         <v>736</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="D44" s="77">
+      <c r="D44" s="63">
         <v>3.57</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="63" t="s">
         <v>743</v>
       </c>
-      <c r="F44" s="77" t="s">
+      <c r="F44" s="63" t="s">
         <v>745</v>
       </c>
-      <c r="G44" s="77" t="s">
+      <c r="G44" s="63" t="s">
         <v>748</v>
       </c>
-      <c r="H44" s="77" t="s">
+      <c r="H44" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="I44" s="77">
+      <c r="I44" s="63">
         <v>50000</v>
       </c>
-      <c r="J44" s="77" t="s">
+      <c r="J44" s="63" t="s">
         <v>754</v>
       </c>
-      <c r="K44" s="78">
+      <c r="K44" s="64">
         <v>42712</v>
       </c>
-      <c r="L44" s="78">
+      <c r="L44" s="64">
         <v>42712</v>
       </c>
-      <c r="M44" s="78">
+      <c r="M44" s="64">
         <v>42713</v>
       </c>
-      <c r="N44" s="78">
+      <c r="N44" s="64">
         <v>55153</v>
       </c>
-      <c r="O44" s="78">
+      <c r="O44" s="64">
         <v>42915</v>
       </c>
-      <c r="P44" s="78">
+      <c r="P44" s="64">
         <v>42915</v>
       </c>
-      <c r="Q44" s="79" t="s">
+      <c r="Q44" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="R44" s="79" t="s">
+      <c r="R44" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="S44" s="77">
+      <c r="S44" s="63">
         <v>3.57</v>
       </c>
-      <c r="T44" s="77">
+      <c r="T44" s="63">
         <v>12440</v>
       </c>
-      <c r="U44" s="77" t="s">
+      <c r="U44" s="63" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="45" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="62" t="s">
         <v>733</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="63" t="s">
         <v>738</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="D45" s="77">
+      <c r="D45" s="63">
         <v>1</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="63" t="s">
         <v>743</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="63" t="s">
         <v>745</v>
       </c>
-      <c r="G45" s="77" t="s">
+      <c r="G45" s="63" t="s">
         <v>747</v>
       </c>
-      <c r="H45" s="77" t="s">
+      <c r="H45" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="I45" s="77">
+      <c r="I45" s="63">
         <v>50000</v>
       </c>
-      <c r="J45" s="77" t="s">
+      <c r="J45" s="63" t="s">
         <v>753</v>
       </c>
-      <c r="K45" s="78">
+      <c r="K45" s="64">
         <v>42653</v>
       </c>
-      <c r="L45" s="78">
+      <c r="L45" s="64">
         <v>42656</v>
       </c>
-      <c r="M45" s="78">
+      <c r="M45" s="64">
         <v>42657</v>
       </c>
-      <c r="N45" s="78">
+      <c r="N45" s="64">
         <v>69763</v>
       </c>
-      <c r="O45" s="78">
+      <c r="O45" s="64">
         <v>42915</v>
       </c>
-      <c r="P45" s="78">
+      <c r="P45" s="64">
         <v>42915</v>
       </c>
-      <c r="Q45" s="79" t="s">
+      <c r="Q45" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="R45" s="79" t="s">
+      <c r="R45" s="65" t="s">
         <v>762</v>
       </c>
-      <c r="S45" s="77">
+      <c r="S45" s="63">
         <v>1</v>
       </c>
-      <c r="T45" s="77">
+      <c r="T45" s="63">
         <v>27106</v>
       </c>
-      <c r="U45" s="77" t="s">
+      <c r="U45" s="63" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="66" t="s">
         <v>732</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="67" t="s">
         <v>737</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="67" t="s">
         <v>740</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="67">
         <v>3.8</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="67">
         <v>50000</v>
       </c>
-      <c r="J46" s="81" t="s">
+      <c r="J46" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K46" s="82">
+      <c r="K46" s="68">
         <v>42552</v>
       </c>
-      <c r="L46" s="82">
+      <c r="L46" s="68">
         <v>42554</v>
       </c>
-      <c r="M46" s="82">
+      <c r="M46" s="68">
         <v>42555</v>
       </c>
-      <c r="N46" s="82">
+      <c r="N46" s="68">
         <v>55153</v>
       </c>
-      <c r="O46" s="82">
+      <c r="O46" s="68">
         <v>42915</v>
       </c>
-      <c r="P46" s="82">
+      <c r="P46" s="68">
         <v>42915</v>
       </c>
-      <c r="Q46" s="83" t="s">
+      <c r="Q46" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R46" s="83" t="s">
+      <c r="R46" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S46" s="81">
+      <c r="S46" s="67">
         <v>3.8</v>
       </c>
-      <c r="T46" s="81">
+      <c r="T46" s="67">
         <v>12598</v>
       </c>
-      <c r="U46" s="81" t="s">
+      <c r="U46" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="47" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="66" t="s">
         <v>771</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="67" t="s">
         <v>774</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D47" s="67">
         <v>3.5</v>
       </c>
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="F47" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I47" s="81">
+      <c r="I47" s="67">
         <v>50000</v>
       </c>
-      <c r="J47" s="81" t="s">
+      <c r="J47" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K47" s="82">
+      <c r="K47" s="68">
         <v>41698</v>
       </c>
-      <c r="L47" s="82">
+      <c r="L47" s="68">
         <v>41704</v>
       </c>
-      <c r="M47" s="82">
+      <c r="M47" s="68">
         <v>41705</v>
       </c>
-      <c r="N47" s="82">
+      <c r="N47" s="68">
         <v>73050</v>
       </c>
-      <c r="O47" s="82">
+      <c r="O47" s="68">
         <v>42893</v>
       </c>
-      <c r="P47" s="82">
+      <c r="P47" s="68">
         <v>42893</v>
       </c>
-      <c r="Q47" s="83" t="s">
+      <c r="Q47" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R47" s="83" t="s">
+      <c r="R47" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S47" s="81">
+      <c r="S47" s="67">
         <v>3.5</v>
       </c>
-      <c r="T47" s="81">
+      <c r="T47" s="67">
         <v>31345</v>
       </c>
-      <c r="U47" s="81" t="s">
+      <c r="U47" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="66" t="s">
         <v>772</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="67" t="s">
         <v>775</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="67">
         <v>3.5</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F48" s="81" t="s">
+      <c r="F48" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I48" s="81">
+      <c r="I48" s="67">
         <v>50000</v>
       </c>
-      <c r="J48" s="81" t="s">
+      <c r="J48" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K48" s="82">
+      <c r="K48" s="68">
         <v>41691</v>
       </c>
-      <c r="L48" s="82">
+      <c r="L48" s="68">
         <v>41697</v>
       </c>
-      <c r="M48" s="82">
+      <c r="M48" s="68">
         <v>41698</v>
       </c>
-      <c r="N48" s="82">
+      <c r="N48" s="68">
         <v>73050</v>
       </c>
-      <c r="O48" s="82">
+      <c r="O48" s="68">
         <v>42914</v>
       </c>
-      <c r="P48" s="82">
+      <c r="P48" s="68">
         <v>42914</v>
       </c>
-      <c r="Q48" s="83" t="s">
+      <c r="Q48" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R48" s="83" t="s">
+      <c r="R48" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S48" s="81">
+      <c r="S48" s="67">
         <v>3.5</v>
       </c>
-      <c r="T48" s="81">
+      <c r="T48" s="67">
         <v>31352</v>
       </c>
-      <c r="U48" s="81" t="s">
+      <c r="U48" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="66" t="s">
         <v>773</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="67" t="s">
         <v>776</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="67">
         <v>3.5</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F49" s="81" t="s">
+      <c r="F49" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I49" s="81">
+      <c r="I49" s="67">
         <v>50000</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K49" s="82">
+      <c r="K49" s="68">
         <v>41684</v>
       </c>
-      <c r="L49" s="82">
+      <c r="L49" s="68">
         <v>41690</v>
       </c>
-      <c r="M49" s="82">
+      <c r="M49" s="68">
         <v>41691</v>
       </c>
-      <c r="N49" s="82">
+      <c r="N49" s="68">
         <v>73050</v>
       </c>
-      <c r="O49" s="82">
+      <c r="O49" s="68">
         <v>42907</v>
       </c>
-      <c r="P49" s="82">
+      <c r="P49" s="68">
         <v>42907</v>
       </c>
-      <c r="Q49" s="83" t="s">
+      <c r="Q49" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R49" s="83" t="s">
+      <c r="R49" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S49" s="81">
+      <c r="S49" s="67">
         <v>3.5</v>
       </c>
-      <c r="T49" s="81">
+      <c r="T49" s="67">
         <v>31359</v>
       </c>
-      <c r="U49" s="81" t="s">
+      <c r="U49" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="66" t="s">
         <v>778</v>
       </c>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="67" t="s">
         <v>781</v>
       </c>
-      <c r="C50" s="81" t="s">
+      <c r="C50" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="67">
         <v>3.6</v>
       </c>
-      <c r="E50" s="81" t="s">
+      <c r="E50" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F50" s="81" t="s">
+      <c r="F50" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="G50" s="81" t="s">
+      <c r="G50" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H50" s="81" t="s">
+      <c r="H50" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I50" s="81">
+      <c r="I50" s="67">
         <v>50000</v>
       </c>
-      <c r="J50" s="81" t="s">
+      <c r="J50" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K50" s="82">
+      <c r="K50" s="68">
         <v>41677</v>
       </c>
-      <c r="L50" s="82">
+      <c r="L50" s="68">
         <v>41683</v>
       </c>
-      <c r="M50" s="82">
+      <c r="M50" s="68">
         <v>41684</v>
       </c>
-      <c r="N50" s="82">
+      <c r="N50" s="68">
         <v>73050</v>
       </c>
-      <c r="O50" s="82">
+      <c r="O50" s="68">
         <v>42900</v>
       </c>
-      <c r="P50" s="82">
+      <c r="P50" s="68">
         <v>42900</v>
       </c>
-      <c r="Q50" s="83" t="s">
+      <c r="Q50" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R50" s="83" t="s">
+      <c r="R50" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S50" s="81">
+      <c r="S50" s="67">
         <v>3.6</v>
       </c>
-      <c r="T50" s="81">
+      <c r="T50" s="67">
         <v>31366</v>
       </c>
-      <c r="U50" s="81" t="s">
+      <c r="U50" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="66" t="s">
         <v>779</v>
       </c>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="67" t="s">
         <v>782</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="67">
         <v>3.5</v>
       </c>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="F51" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="G51" s="81" t="s">
+      <c r="G51" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I51" s="81">
+      <c r="I51" s="67">
         <v>50000</v>
       </c>
-      <c r="J51" s="81" t="s">
+      <c r="J51" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K51" s="82">
+      <c r="K51" s="68">
         <v>41472</v>
       </c>
-      <c r="L51" s="82">
+      <c r="L51" s="68">
         <v>41486</v>
       </c>
-      <c r="M51" s="82">
+      <c r="M51" s="68">
         <v>41487</v>
       </c>
-      <c r="N51" s="82">
+      <c r="N51" s="68">
         <v>73050</v>
       </c>
-      <c r="O51" s="82">
+      <c r="O51" s="68">
         <v>42887</v>
       </c>
-      <c r="P51" s="82">
+      <c r="P51" s="68">
         <v>42887</v>
       </c>
-      <c r="Q51" s="83" t="s">
+      <c r="Q51" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R51" s="83" t="s">
+      <c r="R51" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S51" s="81">
+      <c r="S51" s="67">
         <v>3.5</v>
       </c>
-      <c r="T51" s="81">
+      <c r="T51" s="67">
         <v>31563</v>
       </c>
-      <c r="U51" s="81" t="s">
+      <c r="U51" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="66" t="s">
         <v>780</v>
       </c>
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="67" t="s">
         <v>783</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="67" t="s">
         <v>740</v>
       </c>
-      <c r="D52" s="81">
+      <c r="D52" s="67">
         <v>1</v>
       </c>
-      <c r="E52" s="81" t="s">
+      <c r="E52" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F52" s="81" t="s">
+      <c r="F52" s="67" t="s">
         <v>745</v>
       </c>
-      <c r="G52" s="81" t="s">
+      <c r="G52" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I52" s="81">
+      <c r="I52" s="67">
         <v>50000</v>
       </c>
-      <c r="J52" s="81" t="s">
+      <c r="J52" s="67" t="s">
         <v>753</v>
       </c>
-      <c r="K52" s="82">
+      <c r="K52" s="68">
         <v>41291</v>
       </c>
-      <c r="L52" s="82">
+      <c r="L52" s="68">
         <v>41291</v>
       </c>
-      <c r="M52" s="82">
+      <c r="M52" s="68">
         <v>41291</v>
       </c>
-      <c r="N52" s="82">
+      <c r="N52" s="68">
         <v>73050</v>
       </c>
-      <c r="O52" s="82">
+      <c r="O52" s="68">
         <v>42915</v>
       </c>
-      <c r="P52" s="82">
+      <c r="P52" s="68">
         <v>42915</v>
       </c>
-      <c r="Q52" s="83" t="s">
+      <c r="Q52" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R52" s="83" t="s">
+      <c r="R52" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S52" s="81">
+      <c r="S52" s="67">
         <v>1</v>
       </c>
-      <c r="T52" s="81">
+      <c r="T52" s="67">
         <v>31759</v>
       </c>
-      <c r="U52" s="81" t="s">
+      <c r="U52" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="53" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="66" t="s">
         <v>784</v>
       </c>
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="67" t="s">
         <v>788</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="67" t="s">
         <v>792</v>
       </c>
-      <c r="D53" s="81">
+      <c r="D53" s="67">
         <v>4.8</v>
       </c>
-      <c r="E53" s="81" t="s">
+      <c r="E53" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F53" s="81" t="s">
+      <c r="F53" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G53" s="81" t="s">
+      <c r="G53" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H53" s="81" t="s">
+      <c r="H53" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I53" s="81">
+      <c r="I53" s="67">
         <v>50000</v>
       </c>
-      <c r="J53" s="81" t="s">
+      <c r="J53" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K53" s="82">
+      <c r="K53" s="68">
         <v>42915</v>
       </c>
-      <c r="L53" s="82">
+      <c r="L53" s="68">
         <v>42915</v>
       </c>
-      <c r="M53" s="82">
+      <c r="M53" s="68">
         <v>42916</v>
       </c>
-      <c r="N53" s="82">
+      <c r="N53" s="68">
         <v>42956</v>
       </c>
-      <c r="O53" s="83" t="s">
+      <c r="O53" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P53" s="83" t="s">
+      <c r="P53" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q53" s="83" t="s">
+      <c r="Q53" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R53" s="83" t="s">
+      <c r="R53" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S53" s="81">
+      <c r="S53" s="67">
         <v>4.8</v>
       </c>
-      <c r="T53" s="81">
+      <c r="T53" s="67">
         <v>40</v>
       </c>
-      <c r="U53" s="81" t="s">
+      <c r="U53" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="66" t="s">
         <v>785</v>
       </c>
-      <c r="B54" s="81" t="s">
+      <c r="B54" s="67" t="s">
         <v>789</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D54" s="81">
+      <c r="D54" s="67">
         <v>4.3</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F54" s="81" t="s">
+      <c r="F54" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G54" s="81" t="s">
+      <c r="G54" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="H54" s="81" t="s">
+      <c r="H54" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I54" s="81">
+      <c r="I54" s="67">
         <v>50000</v>
       </c>
-      <c r="J54" s="81" t="s">
+      <c r="J54" s="67" t="s">
         <v>753</v>
       </c>
-      <c r="K54" s="82">
+      <c r="K54" s="68">
         <v>42913</v>
       </c>
-      <c r="L54" s="82">
+      <c r="L54" s="68">
         <v>42915</v>
       </c>
-      <c r="M54" s="82">
+      <c r="M54" s="68">
         <v>42916</v>
       </c>
-      <c r="N54" s="82">
+      <c r="N54" s="68">
         <v>42947</v>
       </c>
-      <c r="O54" s="83" t="s">
+      <c r="O54" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P54" s="83" t="s">
+      <c r="P54" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q54" s="83" t="s">
+      <c r="Q54" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R54" s="83" t="s">
+      <c r="R54" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S54" s="81">
+      <c r="S54" s="67">
         <v>2.6</v>
       </c>
-      <c r="T54" s="81">
+      <c r="T54" s="67">
         <v>31</v>
       </c>
-      <c r="U54" s="81" t="s">
+      <c r="U54" s="67" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="55" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="66" t="s">
         <v>786</v>
       </c>
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="67" t="s">
         <v>790</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="67" t="s">
         <v>793</v>
       </c>
-      <c r="D55" s="81">
+      <c r="D55" s="67">
         <v>4.8</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F55" s="81" t="s">
+      <c r="F55" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G55" s="81" t="s">
+      <c r="G55" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H55" s="81" t="s">
+      <c r="H55" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I55" s="81">
+      <c r="I55" s="67">
         <v>50000</v>
       </c>
-      <c r="J55" s="81" t="s">
+      <c r="J55" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K55" s="82">
+      <c r="K55" s="68">
         <v>42908</v>
       </c>
-      <c r="L55" s="82">
+      <c r="L55" s="68">
         <v>42908</v>
       </c>
-      <c r="M55" s="82">
+      <c r="M55" s="68">
         <v>42909</v>
       </c>
-      <c r="N55" s="82">
+      <c r="N55" s="68">
         <v>43019</v>
       </c>
-      <c r="O55" s="83" t="s">
+      <c r="O55" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P55" s="83" t="s">
+      <c r="P55" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q55" s="83" t="s">
+      <c r="Q55" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R55" s="83" t="s">
+      <c r="R55" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S55" s="81">
+      <c r="S55" s="67">
         <v>4.8</v>
       </c>
-      <c r="T55" s="81">
+      <c r="T55" s="67">
         <v>110</v>
       </c>
-      <c r="U55" s="81" t="s">
+      <c r="U55" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="66" t="s">
         <v>787</v>
       </c>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="67" t="s">
         <v>791</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="67" t="s">
         <v>794</v>
       </c>
-      <c r="D56" s="81">
+      <c r="D56" s="67">
         <v>4.7</v>
       </c>
-      <c r="E56" s="81" t="s">
+      <c r="E56" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F56" s="81" t="s">
+      <c r="F56" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G56" s="81" t="s">
+      <c r="G56" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H56" s="81" t="s">
+      <c r="H56" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I56" s="81">
+      <c r="I56" s="67">
         <v>50000</v>
       </c>
-      <c r="J56" s="81" t="s">
+      <c r="J56" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K56" s="82">
+      <c r="K56" s="68">
         <v>42908</v>
       </c>
-      <c r="L56" s="82">
+      <c r="L56" s="68">
         <v>42912</v>
       </c>
-      <c r="M56" s="82">
+      <c r="M56" s="68">
         <v>42913</v>
       </c>
-      <c r="N56" s="82">
+      <c r="N56" s="68">
         <v>43154</v>
       </c>
-      <c r="O56" s="83" t="s">
+      <c r="O56" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P56" s="83" t="s">
+      <c r="P56" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q56" s="83" t="s">
+      <c r="Q56" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R56" s="83" t="s">
+      <c r="R56" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S56" s="81">
+      <c r="S56" s="67">
         <v>4.7</v>
       </c>
-      <c r="T56" s="81">
+      <c r="T56" s="67">
         <v>241</v>
       </c>
-      <c r="U56" s="81" t="s">
+      <c r="U56" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="57" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="66" t="s">
         <v>817</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="67" t="s">
         <v>800</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="C57" s="67" t="s">
         <v>794</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="E57" s="81" t="s">
+      <c r="E57" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F57" s="81" t="s">
+      <c r="F57" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G57" s="81" t="s">
+      <c r="G57" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I57" s="81">
+      <c r="I57" s="67">
         <v>50000</v>
       </c>
-      <c r="J57" s="81" t="s">
+      <c r="J57" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K57" s="82">
+      <c r="K57" s="68">
         <v>42601</v>
       </c>
-      <c r="L57" s="82">
+      <c r="L57" s="68">
         <v>42608</v>
       </c>
-      <c r="M57" s="82">
+      <c r="M57" s="68">
         <v>42608</v>
       </c>
-      <c r="N57" s="82">
+      <c r="N57" s="68">
         <v>42970</v>
       </c>
-      <c r="O57" s="83" t="s">
+      <c r="O57" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P57" s="83" t="s">
+      <c r="P57" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q57" s="83" t="s">
+      <c r="Q57" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R57" s="83" t="s">
+      <c r="R57" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S57" s="83" t="s">
+      <c r="S57" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="T57" s="81">
+      <c r="T57" s="67">
         <v>362</v>
       </c>
-      <c r="U57" s="81" t="s">
+      <c r="U57" s="67" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="58" spans="1:21" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A58" s="80" t="s">
+      <c r="A58" s="66" t="s">
         <v>797</v>
       </c>
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="67" t="s">
         <v>801</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="C58" s="67" t="s">
         <v>794</v>
       </c>
-      <c r="D58" s="81">
+      <c r="D58" s="67">
         <v>2</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F58" s="81" t="s">
+      <c r="F58" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G58" s="81" t="s">
+      <c r="G58" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H58" s="81" t="s">
+      <c r="H58" s="67" t="s">
         <v>804</v>
       </c>
-      <c r="I58" s="81">
+      <c r="I58" s="67">
         <v>7500</v>
       </c>
-      <c r="J58" s="81" t="s">
+      <c r="J58" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K58" s="82">
+      <c r="K58" s="68">
         <v>42758</v>
       </c>
-      <c r="L58" s="82">
+      <c r="L58" s="68">
         <v>42769</v>
       </c>
-      <c r="M58" s="82">
+      <c r="M58" s="68">
         <v>42770</v>
       </c>
-      <c r="N58" s="82">
+      <c r="N58" s="68">
         <v>43136</v>
       </c>
-      <c r="O58" s="82">
+      <c r="O58" s="68">
         <v>42914</v>
       </c>
-      <c r="P58" s="82">
+      <c r="P58" s="68">
         <v>42914</v>
       </c>
-      <c r="Q58" s="83" t="s">
+      <c r="Q58" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R58" s="83" t="s">
+      <c r="R58" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S58" s="81">
+      <c r="S58" s="67">
         <v>0</v>
       </c>
-      <c r="T58" s="81">
+      <c r="T58" s="67">
         <v>366</v>
       </c>
-      <c r="U58" s="81" t="s">
+      <c r="U58" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="59" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="80" t="s">
+      <c r="A59" s="66" t="s">
         <v>798</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="67" t="s">
         <v>802</v>
       </c>
-      <c r="C59" s="81" t="s">
+      <c r="C59" s="67" t="s">
         <v>793</v>
       </c>
-      <c r="D59" s="81">
+      <c r="D59" s="67">
         <v>4.5</v>
       </c>
-      <c r="E59" s="81" t="s">
+      <c r="E59" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F59" s="81" t="s">
+      <c r="F59" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G59" s="81" t="s">
+      <c r="G59" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H59" s="81" t="s">
+      <c r="H59" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I59" s="81">
+      <c r="I59" s="67">
         <v>200000</v>
       </c>
-      <c r="J59" s="81" t="s">
+      <c r="J59" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K59" s="82">
+      <c r="K59" s="68">
         <v>42775</v>
       </c>
-      <c r="L59" s="82">
+      <c r="L59" s="68">
         <v>42781</v>
       </c>
-      <c r="M59" s="82">
+      <c r="M59" s="68">
         <v>42782</v>
       </c>
-      <c r="N59" s="82">
+      <c r="N59" s="68">
         <v>42927</v>
       </c>
-      <c r="O59" s="82">
+      <c r="O59" s="68">
         <v>42822</v>
       </c>
-      <c r="P59" s="82">
+      <c r="P59" s="68">
         <v>42822</v>
       </c>
-      <c r="Q59" s="83" t="s">
+      <c r="Q59" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R59" s="83" t="s">
+      <c r="R59" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S59" s="81">
+      <c r="S59" s="67">
         <v>0</v>
       </c>
-      <c r="T59" s="81">
+      <c r="T59" s="67">
         <v>145</v>
       </c>
-      <c r="U59" s="81" t="s">
+      <c r="U59" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="80" t="s">
+      <c r="A60" s="66" t="s">
         <v>799</v>
       </c>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="67" t="s">
         <v>803</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="67" t="s">
         <v>792</v>
       </c>
-      <c r="D60" s="81">
+      <c r="D60" s="67">
         <v>5</v>
       </c>
-      <c r="E60" s="81" t="s">
+      <c r="E60" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F60" s="81" t="s">
+      <c r="F60" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G60" s="81" t="s">
+      <c r="G60" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H60" s="81" t="s">
+      <c r="H60" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I60" s="81">
+      <c r="I60" s="67">
         <v>50000</v>
       </c>
-      <c r="J60" s="81" t="s">
+      <c r="J60" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K60" s="82">
+      <c r="K60" s="68">
         <v>42830</v>
       </c>
-      <c r="L60" s="82">
+      <c r="L60" s="68">
         <v>42830</v>
       </c>
-      <c r="M60" s="82">
+      <c r="M60" s="68">
         <v>42831</v>
       </c>
-      <c r="N60" s="82">
+      <c r="N60" s="68">
         <v>42919</v>
       </c>
-      <c r="O60" s="83" t="s">
+      <c r="O60" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P60" s="83" t="s">
+      <c r="P60" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q60" s="83" t="s">
+      <c r="Q60" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R60" s="83" t="s">
+      <c r="R60" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S60" s="81">
+      <c r="S60" s="67">
         <v>1.5</v>
       </c>
-      <c r="T60" s="81">
+      <c r="T60" s="67">
         <v>88</v>
       </c>
-      <c r="U60" s="81" t="s">
+      <c r="U60" s="67" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="61" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="66" t="s">
         <v>805</v>
       </c>
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="67" t="s">
         <v>807</v>
       </c>
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="67" t="s">
         <v>794</v>
       </c>
-      <c r="D61" s="81">
+      <c r="D61" s="67">
         <v>7</v>
       </c>
-      <c r="E61" s="81" t="s">
+      <c r="E61" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G61" s="81" t="s">
+      <c r="G61" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H61" s="81" t="s">
+      <c r="H61" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I61" s="81">
+      <c r="I61" s="67">
         <v>50000</v>
       </c>
-      <c r="J61" s="81" t="s">
+      <c r="J61" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K61" s="82">
+      <c r="K61" s="68">
         <v>42880</v>
       </c>
-      <c r="L61" s="82">
+      <c r="L61" s="68">
         <v>42886</v>
       </c>
-      <c r="M61" s="82">
+      <c r="M61" s="68">
         <v>42887</v>
       </c>
-      <c r="N61" s="82">
+      <c r="N61" s="68">
         <v>43074</v>
       </c>
-      <c r="O61" s="83" t="s">
+      <c r="O61" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P61" s="83" t="s">
+      <c r="P61" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q61" s="83" t="s">
+      <c r="Q61" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R61" s="83" t="s">
+      <c r="R61" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S61" s="81">
+      <c r="S61" s="67">
         <v>1.5</v>
       </c>
-      <c r="T61" s="81">
+      <c r="T61" s="67">
         <v>187</v>
       </c>
-      <c r="U61" s="81" t="s">
+      <c r="U61" s="67" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="62" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="66" t="s">
         <v>806</v>
       </c>
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="67" t="s">
         <v>808</v>
       </c>
-      <c r="C62" s="81" t="s">
+      <c r="C62" s="67" t="s">
         <v>793</v>
       </c>
-      <c r="D62" s="81">
+      <c r="D62" s="67">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E62" s="81" t="s">
+      <c r="E62" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G62" s="81" t="s">
+      <c r="G62" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="H62" s="81" t="s">
+      <c r="H62" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I62" s="81">
+      <c r="I62" s="67">
         <v>50000</v>
       </c>
-      <c r="J62" s="81" t="s">
+      <c r="J62" s="67" t="s">
         <v>753</v>
       </c>
-      <c r="K62" s="82">
+      <c r="K62" s="68">
         <v>42906</v>
       </c>
-      <c r="L62" s="82">
+      <c r="L62" s="68">
         <v>42908</v>
       </c>
-      <c r="M62" s="82">
+      <c r="M62" s="68">
         <v>42909</v>
       </c>
-      <c r="N62" s="82">
+      <c r="N62" s="68">
         <v>43089</v>
       </c>
-      <c r="O62" s="83" t="s">
+      <c r="O62" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="P62" s="83" t="s">
+      <c r="P62" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="Q62" s="83" t="s">
+      <c r="Q62" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="R62" s="83" t="s">
+      <c r="R62" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="S62" s="81">
+      <c r="S62" s="67">
         <v>2.6</v>
       </c>
-      <c r="T62" s="81">
+      <c r="T62" s="67">
         <v>180</v>
       </c>
-      <c r="U62" s="81" t="s">
+      <c r="U62" s="67" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="63" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="66" t="s">
         <v>809</v>
       </c>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="67" t="s">
         <v>812</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="C63" s="67" t="s">
         <v>793</v>
       </c>
-      <c r="D63" s="83" t="s">
+      <c r="D63" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F63" s="81" t="s">
+      <c r="F63" s="67" t="s">
         <v>815</v>
       </c>
-      <c r="G63" s="81" t="s">
+      <c r="G63" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H63" s="81" t="s">
+      <c r="H63" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I63" s="81">
+      <c r="I63" s="67">
         <v>50000</v>
       </c>
-      <c r="J63" s="81" t="s">
+      <c r="J63" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K63" s="82">
+      <c r="K63" s="68">
         <v>42607</v>
       </c>
-      <c r="L63" s="82">
+      <c r="L63" s="68">
         <v>42613</v>
       </c>
-      <c r="M63" s="82">
+      <c r="M63" s="68">
         <v>42614</v>
       </c>
-      <c r="N63" s="82">
+      <c r="N63" s="68">
         <v>43709</v>
       </c>
-      <c r="O63" s="82">
+      <c r="O63" s="68">
         <v>42887</v>
       </c>
-      <c r="P63" s="82">
+      <c r="P63" s="68">
         <v>42887</v>
       </c>
-      <c r="Q63" s="81">
+      <c r="Q63" s="67">
         <v>1</v>
       </c>
-      <c r="R63" s="81">
+      <c r="R63" s="67">
         <v>1.03417</v>
       </c>
-      <c r="S63" s="83" t="s">
+      <c r="S63" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="T63" s="81">
+      <c r="T63" s="67">
         <v>1095</v>
       </c>
-      <c r="U63" s="81" t="s">
+      <c r="U63" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="64" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="80" t="s">
+      <c r="A64" s="66" t="s">
         <v>810</v>
       </c>
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="67" t="s">
         <v>813</v>
       </c>
-      <c r="C64" s="81" t="s">
+      <c r="C64" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D64" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="E64" s="81" t="s">
+      <c r="E64" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F64" s="81" t="s">
+      <c r="F64" s="67" t="s">
         <v>815</v>
       </c>
-      <c r="G64" s="81" t="s">
+      <c r="G64" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H64" s="81" t="s">
+      <c r="H64" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I64" s="81">
+      <c r="I64" s="67">
         <v>50000</v>
       </c>
-      <c r="J64" s="81" t="s">
+      <c r="J64" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="K64" s="82">
+      <c r="K64" s="68">
         <v>42485</v>
       </c>
-      <c r="L64" s="82">
+      <c r="L64" s="68">
         <v>42499</v>
       </c>
-      <c r="M64" s="82">
+      <c r="M64" s="68">
         <v>42500</v>
       </c>
-      <c r="N64" s="82">
+      <c r="N64" s="68">
         <v>73020</v>
       </c>
-      <c r="O64" s="82">
+      <c r="O64" s="68">
         <v>42894</v>
       </c>
-      <c r="P64" s="82">
+      <c r="P64" s="68">
         <v>42894</v>
       </c>
-      <c r="Q64" s="81">
+      <c r="Q64" s="67">
         <v>1</v>
       </c>
-      <c r="R64" s="81">
+      <c r="R64" s="67">
         <v>1.0501199999999999</v>
       </c>
-      <c r="S64" s="83" t="s">
+      <c r="S64" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="T64" s="81">
+      <c r="T64" s="67">
         <v>30520</v>
       </c>
-      <c r="U64" s="81" t="s">
+      <c r="U64" s="67" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="80" t="s">
+      <c r="A65" s="66" t="s">
         <v>811</v>
       </c>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="67" t="s">
         <v>814</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="67" t="s">
         <v>777</v>
       </c>
-      <c r="D65" s="83" t="s">
+      <c r="D65" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="E65" s="81" t="s">
+      <c r="E65" s="67" t="s">
         <v>743</v>
       </c>
-      <c r="F65" s="81" t="s">
+      <c r="F65" s="67" t="s">
         <v>815</v>
       </c>
-      <c r="G65" s="81" t="s">
+      <c r="G65" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="H65" s="81" t="s">
+      <c r="H65" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="I65" s="81">
+      <c r="I65" s="67">
         <v>100000</v>
       </c>
-      <c r="J65" s="81" t="s">
+      <c r="J65" s="67" t="s">
         <v>816</v>
       </c>
-      <c r="K65" s="82">
+      <c r="K65" s="68">
         <v>42418</v>
       </c>
-      <c r="L65" s="82">
+      <c r="L65" s="68">
         <v>42431</v>
       </c>
-      <c r="M65" s="82">
+      <c r="M65" s="68">
         <v>42432</v>
       </c>
-      <c r="N65" s="82">
+      <c r="N65" s="68">
         <v>44257</v>
       </c>
-      <c r="O65" s="82">
+      <c r="O65" s="68">
         <v>42907</v>
       </c>
-      <c r="P65" s="82">
+      <c r="P65" s="68">
         <v>42907</v>
       </c>
-      <c r="Q65" s="81">
+      <c r="Q65" s="67">
         <v>1</v>
       </c>
-      <c r="R65" s="81">
+      <c r="R65" s="67">
         <v>1.071</v>
       </c>
-      <c r="S65" s="83" t="s">
+      <c r="S65" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="T65" s="81">
+      <c r="T65" s="67">
         <v>1825</v>
       </c>
-      <c r="U65" s="81" t="s">
+      <c r="U65" s="67" t="s">
         <v>767</v>
       </c>
     </row>

--- a/wenjian/新资管案例.xlsx
+++ b/wenjian/新资管案例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="650" firstSheet="1" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="650" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5626" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="1746">
   <si>
     <t>新资管系统</t>
   </si>
@@ -9352,6 +9352,18 @@
   </si>
   <si>
     <t>参数管理-新建（封闭式产品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记中，结构性产品挂钩标的不可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记模板导入，境内托管机构名称和境内托管机构代码提示不能为空（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认发行的产品是否可以删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9814,7 +9826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10052,6 +10064,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11024,11 +11039,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="A2:A51"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D7"/>
@@ -11041,6 +11051,11 @@
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11054,10 +11069,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12700,6 +12715,21 @@
       </c>
       <c r="U25" s="41" t="s">
         <v>767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="84" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="84" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="84" t="s">
+        <v>1745</v>
       </c>
     </row>
   </sheetData>
@@ -27193,7 +27223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
@@ -32086,7 +32116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -34724,8 +34754,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D70" sqref="A69:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37245,7 +37275,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
